--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A9C83B-6D76-444B-BA4B-858AEEC8BC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{660CDD36-4689-435E-994E-195FA0925132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -22,21 +22,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -54,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -968,6 +954,10 @@
   </si>
   <si>
     <t>CN</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -975,18 +965,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1523,7 +1513,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="286">
@@ -1579,8 +1569,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1603,14 +1593,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1640,7 +1630,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1742,7 +1732,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1770,7 +1760,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1823,13 +1813,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1865,7 +1855,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1895,16 +1885,16 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1925,7 +1915,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1947,10 +1937,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1959,10 +1949,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1979,7 +1969,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1991,13 +1981,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2035,7 +2025,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2079,19 +2069,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2116,7 +2106,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2128,10 +2118,10 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="2" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2162,13 +2152,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2177,7 +2167,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2191,7 +2181,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2204,14 +2194,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -2407,7 +2397,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2469,7 +2459,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2741,7 +2731,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2771,7 +2761,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3583,182 +3573,182 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="189" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="189" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B5" s="141" t="s">
-        <v>196</v>
-      </c>
       <c r="C5" s="192" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45624</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="192" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="192" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="268"/>
-    </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B9" s="140" t="s">
+      <c r="C9" s="193" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="140" t="s">
         <v>217</v>
-      </c>
-      <c r="C9" s="193" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B10" s="140" t="s">
-        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>30598124345</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
-    <row r="17" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D17" s="24"/>
     </row>
-    <row r="18" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="243" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="241" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="243" t="s">
-        <v>246</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="14" x14ac:dyDescent="0.15">
-      <c r="B19" s="241" t="s">
-        <v>240</v>
-      </c>
       <c r="C19" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D19" s="24"/>
     </row>
-    <row r="20" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
-    <row r="22" spans="2:13" ht="84" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D22" s="24"/>
     </row>
-    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3805,9 +3795,9 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>372597</v>
@@ -3825,9 +3815,9 @@
       <c r="L25" s="150"/>
       <c r="M25" s="150"/>
     </row>
-    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>0</v>
@@ -3845,9 +3835,9 @@
       <c r="L26" s="151"/>
       <c r="M26" s="151"/>
     </row>
-    <row r="27" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <f>11294+C29+60026+62939+36403+102123</f>
@@ -3867,9 +3857,9 @@
       <c r="L27" s="151"/>
       <c r="M27" s="151"/>
     </row>
-    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151"/>
       <c r="D28" s="151"/>
@@ -3883,9 +3873,9 @@
       <c r="L28" s="151"/>
       <c r="M28" s="151"/>
     </row>
-    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>1981</v>
@@ -3903,9 +3893,9 @@
       <c r="L29" s="151"/>
       <c r="M29" s="151"/>
     </row>
-    <row r="30" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>196</v>
@@ -3923,9 +3913,9 @@
       <c r="L30" s="151"/>
       <c r="M30" s="151"/>
     </row>
-    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151"/>
       <c r="D31" s="151"/>
@@ -3939,9 +3929,9 @@
       <c r="L31" s="151"/>
       <c r="M31" s="151"/>
     </row>
-    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151">
         <v>84847</v>
@@ -3959,9 +3949,9 @@
       <c r="L32" s="151"/>
       <c r="M32" s="151"/>
     </row>
-    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151">
         <f>C30</f>
@@ -3981,9 +3971,9 @@
       <c r="L33" s="151"/>
       <c r="M33" s="151"/>
     </row>
-    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151">
@@ -3999,9 +3989,9 @@
       <c r="L34" s="151"/>
       <c r="M34" s="151"/>
     </row>
-    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151">
@@ -4018,9 +4008,9 @@
       <c r="L35" s="151"/>
       <c r="M35" s="151"/>
     </row>
-    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151">
@@ -4036,9 +4026,9 @@
       <c r="L36" s="151"/>
       <c r="M36" s="151"/>
     </row>
-    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151">
@@ -4054,9 +4044,9 @@
       <c r="L37" s="151"/>
       <c r="M37" s="151"/>
     </row>
-    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151">
@@ -4072,9 +4062,9 @@
       <c r="L38" s="151"/>
       <c r="M38" s="151"/>
     </row>
-    <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151">
@@ -4090,9 +4080,9 @@
       <c r="L39" s="151"/>
       <c r="M39" s="151"/>
     </row>
-    <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151">
@@ -4108,9 +4098,9 @@
       <c r="L40" s="151"/>
       <c r="M40" s="151"/>
     </row>
-    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151">
@@ -4126,9 +4116,9 @@
       <c r="L41" s="151"/>
       <c r="M41" s="151"/>
     </row>
-    <row r="42" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151">
@@ -4144,9 +4134,9 @@
       <c r="L42" s="151"/>
       <c r="M42" s="151"/>
     </row>
-    <row r="43" spans="2:13" ht="15" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151">
@@ -4163,9 +4153,9 @@
       <c r="L43" s="151"/>
       <c r="M43" s="151"/>
     </row>
-    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251"/>
       <c r="D44" s="251"/>
@@ -4179,9 +4169,9 @@
       <c r="L44" s="251"/>
       <c r="M44" s="251"/>
     </row>
-    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153" t="str">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4228,23 +4218,23 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59">
         <f>40818+132073</f>
@@ -4255,9 +4245,9 @@
       </c>
       <c r="E48" s="112"/>
     </row>
-    <row r="49" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4265,9 +4255,9 @@
       </c>
       <c r="E49" s="112"/>
     </row>
-    <row r="50" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59">
         <f>84342+15901+696</f>
@@ -4279,9 +4269,9 @@
       </c>
       <c r="E50" s="112"/>
     </row>
-    <row r="51" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59">
         <v>176336</v>
@@ -4291,9 +4281,9 @@
       </c>
       <c r="E51" s="112"/>
     </row>
-    <row r="52" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59">
         <f>19344</f>
@@ -4304,9 +4294,9 @@
       </c>
       <c r="E52" s="112"/>
     </row>
-    <row r="53" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59">
         <v>22728</v>
@@ -4317,9 +4307,9 @@
       </c>
       <c r="E53" s="112"/>
     </row>
-    <row r="54" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59">
         <f>20726+8096</f>
@@ -4330,9 +4320,9 @@
       </c>
       <c r="E54" s="112"/>
     </row>
-    <row r="55" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59">
         <v>12616</v>
@@ -4343,9 +4333,9 @@
       </c>
       <c r="E55" s="112"/>
     </row>
-    <row r="56" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4353,24 +4343,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59">
         <v>507</v>
@@ -4381,9 +4371,9 @@
       </c>
       <c r="E58" s="112"/>
     </row>
-    <row r="59" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4392,9 +4382,9 @@
       </c>
       <c r="E59" s="112"/>
     </row>
-    <row r="60" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59">
         <f>75495</f>
@@ -4406,9 +4396,9 @@
       </c>
       <c r="E60" s="112"/>
     </row>
-    <row r="61" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59">
         <f>6083+176712</f>
@@ -4420,9 +4410,9 @@
       </c>
       <c r="E61" s="112"/>
     </row>
-    <row r="62" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59">
         <v>5625</v>
@@ -4433,9 +4423,9 @@
       </c>
       <c r="E62" s="112"/>
     </row>
-    <row r="63" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4444,9 +4434,9 @@
       </c>
       <c r="E63" s="112"/>
     </row>
-    <row r="64" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4454,9 +4444,9 @@
       </c>
       <c r="E64" s="112"/>
     </row>
-    <row r="65" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59">
         <v>185013</v>
@@ -4465,24 +4455,24 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B66" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B66" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59">
         <v>94862</v>
@@ -4492,12 +4482,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59">
         <f>680172+86890+14650</f>
@@ -4509,9 +4499,9 @@
       </c>
       <c r="E68" s="112"/>
     </row>
-    <row r="69" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4520,9 +4510,9 @@
       </c>
       <c r="E69" s="112"/>
     </row>
-    <row r="70" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59">
         <f>2319+31972</f>
@@ -4533,9 +4523,9 @@
       </c>
       <c r="E70" s="112"/>
     </row>
-    <row r="71" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59">
         <v>47891</v>
@@ -4546,9 +4536,9 @@
       </c>
       <c r="E71" s="112"/>
     </row>
-    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248">
         <f>35301+44439</f>
@@ -4559,113 +4549,113 @@
       </c>
       <c r="E72" s="250"/>
     </row>
-    <row r="73" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="59"/>
+    </row>
+    <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B74" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C73" s="59"/>
-    </row>
-    <row r="74" spans="2:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="B74" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C74" s="59">
         <v>33448</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
-    <row r="76" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
-    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83">
         <v>554255</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="79" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59">
         <v>62222</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="B81" s="86" t="s">
-        <v>67</v>
-      </c>
       <c r="C81" s="120"/>
     </row>
-    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83">
         <v>83483</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59">
         <v>1379544</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
-    <row r="85" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
-    <row r="86" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4673,32 +4663,32 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
-    <row r="90" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B90" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4714,9 +4704,9 @@
         <v>372597</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4735,9 +4725,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4756,9 +4746,9 @@
         <v>274766</v>
       </c>
     </row>
-    <row r="94" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4774,9 +4764,9 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="95" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4795,9 +4785,9 @@
         <v>84651</v>
       </c>
     </row>
-    <row r="96" spans="2:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4813,9 +4803,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4831,9 +4821,9 @@
         <v>261.33333333333331</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="14" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4923,19 +4913,19 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -4944,7 +4934,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -4959,9 +4949,9 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4973,15 +4963,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.95</v>
+        <v>6.48</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4990,7 +4980,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -4999,9 +4989,9 @@
       <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -5010,19 +5000,19 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>212656.96419775</v>
+        <v>198275.84575559999</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -5037,7 +5027,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -5046,9 +5036,9 @@
       <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5060,53 +5050,53 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.07</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
         <v>CNY/HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5116,32 +5106,32 @@
       </c>
       <c r="F12" s="110"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5151,52 +5141,52 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5205,155 +5195,155 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>7.0138335341758879E-4</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.1436153467944129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.13359919533123435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>5.3167363129601151E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.227571554327522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>22.537870337224863</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0.22719184534497058</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>2.9355219356749174E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H28" s="272"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9325477455732019</v>
+        <v>1.9678244586985585</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.7878852070152473</v>
+        <v>3.8558599565442702</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.2735855830272964</v>
+        <v>2.3150875984688923</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2938132234915196</v>
+        <v>3.3529217013428441</v>
       </c>
       <c r="H29" s="273"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5361,962 +5351,962 @@
         <v>Strongly agree</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -6391,7 +6381,7 @@
       <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -6399,7 +6389,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -6407,24 +6397,24 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6432,17 +6422,17 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6461,10 +6451,10 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6475,7 +6465,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6483,10 +6473,10 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6533,10 +6523,10 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6584,10 +6574,10 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6635,10 +6625,10 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6686,10 +6676,10 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6737,10 +6727,10 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6788,10 +6778,10 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6839,10 +6829,10 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6890,10 +6880,10 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6941,10 +6931,10 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6992,10 +6982,10 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7043,10 +7033,10 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7094,10 +7084,10 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7145,10 +7135,10 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7196,10 +7186,10 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7247,10 +7237,10 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7298,10 +7288,10 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7349,10 +7339,10 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7400,10 +7390,10 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7451,10 +7441,10 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7502,10 +7492,10 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7553,10 +7543,10 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7604,10 +7594,10 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7655,10 +7645,10 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7706,10 +7696,10 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7757,10 +7747,10 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7808,10 +7798,10 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7859,10 +7849,10 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7910,10 +7900,10 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7961,10 +7951,10 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -8012,10 +8002,10 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -8063,10 +8053,10 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8114,10 +8104,10 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8165,10 +8155,10 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8216,10 +8206,10 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8267,10 +8257,10 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8318,10 +8308,10 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8336,10 +8326,10 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8387,10 +8377,10 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8438,10 +8428,10 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8489,10 +8479,10 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8540,10 +8530,10 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8591,10 +8581,10 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8642,10 +8632,10 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8693,10 +8683,10 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8711,10 +8701,10 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8762,10 +8752,10 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8813,10 +8803,10 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8830,10 +8820,10 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8880,10 +8870,10 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8930,10 +8920,10 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8980,10 +8970,10 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -9030,1260 +9020,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10327,7 +10317,7 @@
       <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -10335,14 +10325,14 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10352,12 +10342,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10371,7 +10361,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10379,9 +10369,9 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10395,14 +10385,14 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10410,23 +10400,23 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25333.480500000027</v>
+        <v>-25391.132431930328</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.018306270680245</v>
+        <v>1.0183479306436738</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10435,9 +10425,9 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10449,7 +10439,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10458,16 +10448,16 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10484,34 +10474,34 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="I10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="24"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10528,7 +10518,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10537,9 +10527,9 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10556,7 +10546,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10565,9 +10555,9 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10584,7 +10574,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10593,9 +10583,9 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10612,7 +10602,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10621,9 +10611,9 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10640,7 +10630,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10648,9 +10638,9 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10670,9 +10660,9 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10692,9 +10682,9 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10713,9 +10703,9 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10738,9 +10728,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10765,9 +10755,9 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10786,9 +10776,9 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10805,25 +10795,25 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
         <v>520807</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="87"/>
+    </row>
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="23" t="s">
         <v>52</v>
-      </c>
-      <c r="G23" s="87"/>
-    </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="23" t="s">
-        <v>53</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10843,9 +10833,9 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10865,16 +10855,16 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
         <v>0.64035904051384285</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10894,7 +10884,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10905,9 +10895,9 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10927,7 +10917,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10938,9 +10928,9 @@
         <v>Liquidity Issue!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10957,7 +10947,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10968,21 +10958,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10998,7 +10988,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11006,9 +10996,9 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11025,7 +11015,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11033,9 +11023,9 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11052,7 +11042,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11060,9 +11050,9 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11082,7 +11072,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11090,9 +11080,9 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11109,7 +11099,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11117,9 +11107,9 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11143,9 +11133,9 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11170,9 +11160,9 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11197,9 +11187,9 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11218,9 +11208,9 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11239,9 +11229,9 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11260,9 +11250,9 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11281,9 +11271,9 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11300,14 +11290,14 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
         <v>21261</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -11316,9 +11306,9 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11335,9 +11325,9 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11354,9 +11344,9 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11373,7 +11363,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11384,9 +11374,9 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11403,7 +11393,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11414,9 +11404,9 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11433,7 +11423,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11441,9 +11431,9 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11460,7 +11450,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11468,22 +11458,22 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11495,12 +11485,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11519,7 +11509,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -11528,9 +11518,9 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11539,9 +11529,9 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11554,9 +11544,9 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11567,12 +11557,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="20" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="20" t="s">
-        <v>93</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11585,7 +11575,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -11594,13 +11584,13 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11608,9 +11598,9 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11629,9 +11619,9 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11650,9 +11640,9 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11671,9 +11661,9 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11686,9 +11676,9 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11707,7 +11697,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -11717,13 +11707,13 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11731,9 +11721,9 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11752,9 +11742,9 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11767,9 +11757,9 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11788,10 +11778,10 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11799,39 +11789,39 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11850,9 +11840,9 @@
       <c r="I74" s="210"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11880,9 +11870,9 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11901,9 +11891,9 @@
       <c r="I76" s="211"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11931,9 +11921,9 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11961,9 +11951,9 @@
       </c>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11992,9 +11982,9 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12021,12 +12011,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12054,9 +12044,9 @@
       </c>
       <c r="K81" s="24"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12084,9 +12074,9 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12114,9 +12104,9 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12135,9 +12125,9 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12166,9 +12156,9 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12187,30 +12177,30 @@
       <c r="I86" s="210"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1275288270539862E-2</v>
+        <v>4.4369764535753031E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1275288270539862E-2</v>
+        <v>4.4369764535753031E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1275288270539862E-2</v>
+        <v>4.4369764535753031E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12238,9 +12228,9 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12259,11 +12249,11 @@
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
       <c r="B91" s="106" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
@@ -12271,32 +12261,32 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
@@ -12310,24 +12300,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>4.8771962595494882</v>
+        <v>4.961363919003956</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>4.8771962595494882</v>
+        <v>4.961363919003956</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12335,14 +12325,14 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
@@ -12350,11 +12340,11 @@
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
       <c r="B96" s="106" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -12365,69 +12355,69 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>74195.204378468537</v>
+        <v>75475.619675075548</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.4248285137318453</v>
+        <v>2.4666747158771161</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.4248285137318453</v>
+        <v>2.4666747158771161</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.4450561541960685</v>
+        <v>3.5045088187510682</v>
       </c>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4627.75</v>
+        <v>4638.2814675569534</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.15124293070454872</v>
+        <v>0.15158711740822403</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12446,70 +12436,70 @@
       <c r="I99" s="217"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>69567.454378468537</v>
+        <v>70837.338207518595</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.9325477455732019</v>
+        <v>1.9678244586985585</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.2735855830272964</v>
+        <v>2.3150875984688919</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.2735855830272964</v>
+        <v>2.3150875984688923</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.2735855830272964</v>
+        <v>2.3150875984688923</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.2938132234915196</v>
+        <v>3.3529217013428441</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -12537,73 +12527,73 @@
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>34783.727189234269</v>
+        <v>35418.66910375929</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.96627387278660093</v>
+        <v>0.98391222934927924</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.1367927915136482</v>
+        <v>1.1575437992344459</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.1367927915136482</v>
+        <v>1.1575437992344462</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.1367927915136482</v>
+        <v>1.1575437992344462</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.6469066117457598</v>
+        <v>1.676460850671422</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{660CDD36-4689-435E-994E-195FA0925132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1925499-2B81-4E12-8FDF-553419675D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -941,10 +941,10 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>0762.HK</t>
+  </si>
+  <si>
     <t>中国联通</t>
-  </si>
-  <si>
-    <t>0762.HK</t>
   </si>
   <si>
     <t>C0010</t>
@@ -3569,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3591,7 +3591,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3599,7 +3599,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4909,8 +4909,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5053,7 +5053,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.13359919533123435</v>
+        <v>0.13360334866814372</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.537870337224863</v>
+        <v>22.538570995402466</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5298,20 +5298,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9678244586985585</v>
+        <v>1.967749439611399</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.8558599565442702</v>
+        <v>3.8557134761992438</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.3150875984688923</v>
+        <v>2.314999340719293</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.3529217013428441</v>
+        <v>3.3527943271297773</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10313,7 +10313,7 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
@@ -10407,11 +10407,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25391.132431930328</v>
+        <v>-25390.34309597018</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0183479306436738</v>
+        <v>1.0183473602602342</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12183,17 +12183,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4369764535753031E-2</v>
+        <v>4.4368385209691649E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4369764535753031E-2</v>
+        <v>4.4368385209691649E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4369764535753031E-2</v>
+        <v>4.4368385209691649E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12304,14 +12304,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>4.961363919003956</v>
+        <v>4.9611769228260982</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>4.961363919003956</v>
+        <v>4.9611769228260982</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12379,21 +12379,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>75475.619675075548</v>
+        <v>75472.774962889322</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.4666747158771161</v>
+        <v>2.4665817457278956</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.4666747158771161</v>
+        <v>2.4665817457278956</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.5045088187510682</v>
+        <v>3.5043767321383799</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12403,14 +12403,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4638.2814675569534</v>
+        <v>4638.1372769673671</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.15158711740822403</v>
+        <v>0.1515824050086024</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12442,27 +12442,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>70837.338207518595</v>
+        <v>70834.63768592196</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.9678244586985585</v>
+        <v>1.967749439611399</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.3150875984688919</v>
+        <v>2.314999340719293</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.3150875984688923</v>
+        <v>2.314999340719293</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.3150875984688923</v>
+        <v>2.3149993407192935</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.3529217013428441</v>
+        <v>3.3527943271297773</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12564,27 +12564,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35418.66910375929</v>
+        <v>35417.318842960973</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.98391222934927924</v>
+        <v>0.98387471980569952</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.1575437992344459</v>
+        <v>1.1574996703596465</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.1575437992344462</v>
+        <v>1.1574996703596465</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.1575437992344462</v>
+        <v>1.1574996703596467</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.676460850671422</v>
+        <v>1.6763971635648887</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1925499-2B81-4E12-8FDF-553419675D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{401D496D-0353-4F14-896F-964F73BE1362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.48</v>
+        <v>6.5</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>198275.84575559999</v>
+        <v>198887.8082425</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5053,7 +5053,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.13360334866814372</v>
+        <v>0.13400320699203341</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.538570995402466</v>
+        <v>22.606026155104164</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5298,20 +5298,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.967749439611399</v>
+        <v>1.9666042638270309</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.8557134761992438</v>
+        <v>3.8535190818567746</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.314999340719293</v>
+        <v>2.3136520750906246</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.3527943271297773</v>
+        <v>3.3508861581363258</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10407,11 +10407,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25390.34309597018</v>
+        <v>-25392.71110385063</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0183473602602342</v>
+        <v>1.018349071410553</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12183,17 +12183,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4368385209691649E-2</v>
+        <v>4.4235992347297727E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4368385209691649E-2</v>
+        <v>4.4235992347297727E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4368385209691649E-2</v>
+        <v>4.4235992347297727E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12304,14 +12304,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>4.9611769228260982</v>
+        <v>4.9584955253769527</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>4.9611769228260982</v>
+        <v>4.9584955253769527</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12379,21 +12379,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>75472.774962889322</v>
+        <v>75431.983733426343</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.4665817457278956</v>
+        <v>2.4652486172980921</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.4665817457278956</v>
+        <v>2.4652486172980921</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.5043767321383799</v>
+        <v>3.5024827003437933</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12403,14 +12403,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4638.1372769673671</v>
+        <v>4638.5698487361278</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.1515824050086024</v>
+        <v>0.15159654220746738</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12442,27 +12442,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>70834.63768592196</v>
+        <v>70793.413884690221</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.967749439611399</v>
+        <v>1.9666042638270309</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.314999340719293</v>
+        <v>2.3136520750906246</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.314999340719293</v>
+        <v>2.3136520750906246</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.3149993407192935</v>
+        <v>2.3136520750906246</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.3527943271297773</v>
+        <v>3.3508861581363258</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12564,27 +12564,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35417.318842960973</v>
+        <v>35396.70694234511</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.98387471980569952</v>
+        <v>0.98330213191351545</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.1574996703596465</v>
+        <v>1.1568260375453123</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.1574996703596465</v>
+        <v>1.1568260375453123</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.1574996703596467</v>
+        <v>1.1568260375453123</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.6763971635648887</v>
+        <v>1.6754430790681629</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{401D496D-0353-4F14-896F-964F73BE1362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0872F3D8-813B-4DD1-BB85-EBC5C3A6A7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5053,7 +5053,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.13400320699203341</v>
+        <v>0.13400737262986981</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.606026155104164</v>
+        <v>22.606728888419248</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5298,20 +5298,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9666042638270309</v>
+        <v>1.9665293352861886</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.8535190818567746</v>
+        <v>3.8533727755581211</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.3136520750906246</v>
+        <v>2.3135639238661043</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.3508861581363258</v>
+        <v>3.3507589352679314</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10407,11 +10407,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25392.71110385063</v>
+        <v>-25391.921767890475</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.018349071410553</v>
+        <v>1.0183485010271134</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12183,17 +12183,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4235992347297727E-2</v>
+        <v>4.423461726531653E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4235992347297727E-2</v>
+        <v>4.423461726531653E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4235992347297727E-2</v>
+        <v>4.423461726531653E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12304,14 +12304,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>4.9584955253769527</v>
+        <v>4.9583087434590771</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>4.9584955253769527</v>
+        <v>4.9583087434590771</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12379,21 +12379,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>75431.983733426343</v>
+        <v>75429.142280707718</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.4652486172980921</v>
+        <v>2.4651557536739501</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.4652486172980921</v>
+        <v>2.4651557536739501</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.5024827003437933</v>
+        <v>3.5023507650757773</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12403,14 +12403,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4638.5698487361278</v>
+        <v>4638.4256581465397</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.15159654220746738</v>
+        <v>0.15159182980784569</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12442,27 +12442,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>70793.413884690221</v>
+        <v>70790.716622561173</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.9666042638270309</v>
+        <v>1.9665293352861886</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.3136520750906246</v>
+        <v>2.3135639238661043</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.3136520750906246</v>
+        <v>2.3135639238661043</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.3136520750906246</v>
+        <v>2.3135639238661043</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.3508861581363258</v>
+        <v>3.3507589352679314</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12564,27 +12564,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35396.70694234511</v>
+        <v>35395.358311280586</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.98330213191351545</v>
+        <v>0.98326466764309428</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.1568260375453123</v>
+        <v>1.1567819619330522</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.1568260375453123</v>
+        <v>1.1567819619330522</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.1568260375453123</v>
+        <v>1.1567819619330522</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.6754430790681629</v>
+        <v>1.6753794676339657</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0872F3D8-813B-4DD1-BB85-EBC5C3A6A7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0318472D-6B39-40DA-B912-D0823A4FF390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4665,7 +4665,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -5053,7 +5053,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.13400737262986981</v>
+        <v>0.13401153852670111</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.606728888419248</v>
+        <v>22.607431665426173</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5298,20 +5298,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9665293352861886</v>
+        <v>1.966454407675764</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.8533727755581211</v>
+        <v>3.8532264710478992</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.3135639238661043</v>
+        <v>2.3134757737361928</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.3507589352679314</v>
+        <v>3.3506317139546953</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10407,11 +10407,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25391.921767890475</v>
+        <v>-25391.132431930328</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0183485010271134</v>
+        <v>1.0183479306436738</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12183,17 +12183,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.423461726531653E-2</v>
+        <v>4.4233242183335339E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.423461726531653E-2</v>
+        <v>4.4233242183335339E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.423461726531653E-2</v>
+        <v>4.4233242183335339E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12304,14 +12304,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>4.9583087434590771</v>
+        <v>4.958121963742852</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>4.9583087434590771</v>
+        <v>4.958121963742852</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12379,21 +12379,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>75429.142280707718</v>
+        <v>75426.300861482072</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.4651557536739501</v>
+        <v>2.465062891144417</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.4651557536739501</v>
+        <v>2.465062891144417</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.5023507650757773</v>
+        <v>3.5022188313629194</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12403,14 +12403,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4638.4256581465397</v>
+        <v>4638.2814675569534</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.15159182980784569</v>
+        <v>0.15158711740822403</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12442,27 +12442,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>70790.716622561173</v>
+        <v>70788.019393925118</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.9665293352861886</v>
+        <v>1.966454407675764</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.3135639238661043</v>
+        <v>2.3134757737361928</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.3135639238661043</v>
+        <v>2.3134757737361928</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.3135639238661043</v>
+        <v>2.3134757737361933</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.3507589352679314</v>
+        <v>3.3506317139546953</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12564,27 +12564,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35395.358311280586</v>
+        <v>35394.009696962552</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.98326466764309428</v>
+        <v>0.98322720383788198</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.1567819619330522</v>
+        <v>1.1567378868680964</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.1567819619330522</v>
+        <v>1.1567378868680964</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.1567819619330522</v>
+        <v>1.1567378868680966</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.6753794676339657</v>
+        <v>1.6753158569773476</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0318472D-6B39-40DA-B912-D0823A4FF390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBA160D0-1F4F-4C3A-885B-F31C5015D004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5053,7 +5053,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5102,7 +5102,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5149,7 +5149,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.13401153852670111</v>
+        <v>0.13401570468255156</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.607431665426173</v>
+        <v>22.608134486129014</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5298,20 +5298,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.966454407675764</v>
+        <v>2.0574761994850164</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.8532264710478992</v>
+        <v>4.0874851408251445</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.3134757737361928</v>
+        <v>2.4205602346882547</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.3506317139546953</v>
+        <v>3.5543349050653434</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -10407,11 +10407,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25391.132431930328</v>
+        <v>-25390.34309597018</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0183479306436738</v>
+        <v>1.0183473602602342</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12183,17 +12183,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4233242183335339E-2</v>
+        <v>4.4231867101354141E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4233242183335339E-2</v>
+        <v>4.4231867101354141E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4233242183335339E-2</v>
+        <v>4.4231867101354141E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12293,7 +12293,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12304,14 +12304,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>4.958121963742852</v>
+        <v>5.1734975856294945</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>4.958121963742852</v>
+        <v>5.1734975856294945</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12379,21 +12379,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>75426.300861482072</v>
+        <v>78702.740322520971</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.465062891144417</v>
+        <v>2.5721426396968572</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.465062891144417</v>
+        <v>2.5721426396968572</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.5022188313629194</v>
+        <v>3.705917310073946</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12403,14 +12403,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4638.2814675569534</v>
+        <v>4638.1372769673671</v>
       </c>
       <c r="D98" s="214"/>
       <c r="E98" s="214"/>
       <c r="F98" s="214"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.15158711740822403</v>
+        <v>0.1515824050086024</v>
       </c>
       <c r="I98" s="216"/>
       <c r="K98" s="24"/>
@@ -12442,27 +12442,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>70788.019393925118</v>
+        <v>74064.603045553609</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.966454407675764</v>
+        <v>2.0574761994850164</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.3134757737361928</v>
+        <v>2.4205602346882547</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.3134757737361928</v>
+        <v>2.4205602346882547</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.3134757737361933</v>
+        <v>2.4205602346882547</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.3506317139546953</v>
+        <v>3.5543349050653434</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12564,27 +12564,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35394.009696962552</v>
+        <v>37032.301522776805</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.98322720383788198</v>
+        <v>1.0287380997425082</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.1567378868680964</v>
+        <v>1.2102801173441273</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.1567378868680964</v>
+        <v>1.2102801173441273</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.1567378868680966</v>
+        <v>1.2102801173441273</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.6753158569773476</v>
+        <v>1.7771674525326717</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBA160D0-1F4F-4C3A-885B-F31C5015D004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8028E1C3-2CCC-441D-B7AE-0BB4BC0CFC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,7 +964,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -977,6 +977,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1516,7 +1517,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1816,9 +1817,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2153,6 +2151,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3590,7 +3594,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3598,7 +3602,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3606,7 +3610,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45624</v>
       </c>
     </row>
@@ -3614,7 +3618,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3622,16 +3626,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3639,7 +3643,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>30598124345</v>
       </c>
     </row>
@@ -3647,101 +3651,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>259</v>
       </c>
       <c r="D22" s="24"/>
@@ -3799,421 +3803,421 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>372597</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>354944</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>0</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>0</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <f>11294+C29+60026+62939+36403+102123</f>
         <v>274766</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <f>10947+D29+56425+60726+34720+92957</f>
         <v>256870</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>1981</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>1095</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>196</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>92</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151">
+      <c r="C32" s="150">
         <v>84847</v>
       </c>
-      <c r="D32" s="151">
+      <c r="D32" s="150">
         <v>86829</v>
       </c>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151">
+      <c r="C33" s="150">
         <f>C30</f>
         <v>196</v>
       </c>
-      <c r="D33" s="151">
+      <c r="D33" s="150">
         <f>D30</f>
         <v>92</v>
       </c>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151">
+      <c r="C34" s="217"/>
+      <c r="D34" s="150">
         <v>498104</v>
       </c>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151">
+      <c r="C35" s="217"/>
+      <c r="D35" s="150">
         <f>54881+12342+1205</f>
         <v>68428</v>
       </c>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151">
+      <c r="C36" s="217"/>
+      <c r="D36" s="150">
         <v>12026</v>
       </c>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151">
+      <c r="C37" s="217"/>
+      <c r="D37" s="150">
         <v>558565</v>
       </c>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151">
+      <c r="C38" s="217"/>
+      <c r="D38" s="150">
         <v>88107</v>
       </c>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151">
+      <c r="C39" s="217"/>
+      <c r="D39" s="150">
         <v>35175</v>
       </c>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151">
+      <c r="C40" s="217"/>
+      <c r="D40" s="150">
         <v>67759</v>
       </c>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151">
+      <c r="C41" s="217"/>
+      <c r="D41" s="150">
         <v>1345985</v>
       </c>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151">
+      <c r="C42" s="217"/>
+      <c r="D42" s="150">
         <v>4253</v>
       </c>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151">
+      <c r="C43" s="217"/>
+      <c r="D43" s="150">
         <f>181715+185621+5628+55387+156018+32020+37213+141559</f>
         <v>795161</v>
       </c>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251"/>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="C44" s="250"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="153" t="str">
+      <c r="C45" s="152" t="str">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="D45" s="153" t="str">
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4222,10 +4226,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4342,7 +4346,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4354,7 +4358,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4376,7 +4380,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4454,7 +4458,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4466,7 +4470,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4481,7 +4485,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4537,17 +4541,17 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248">
+      <c r="C72" s="247">
         <f>35301+44439</f>
         <v>79740</v>
       </c>
-      <c r="D72" s="249">
+      <c r="D72" s="248">
         <v>0</v>
       </c>
-      <c r="E72" s="250"/>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4641,7 +4645,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4649,19 +4653,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4675,14 +4680,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4694,12 +4699,12 @@
         <f>C25</f>
         <v>372597</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>372597</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>372597</v>
       </c>
@@ -4712,15 +4717,15 @@
         <f>C26</f>
         <v>0</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>0</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>0</v>
       </c>
@@ -4733,15 +4738,15 @@
         <f>C27+C28</f>
         <v>274766</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.73743481563190261</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>274766</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>274766</v>
       </c>
@@ -4754,12 +4759,12 @@
         <f>C29</f>
         <v>1981</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>5.3167363129601151E-3</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>1981</v>
       </c>
@@ -4772,15 +4777,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>84651</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0.22719184534497058</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>84651</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>84651</v>
       </c>
@@ -4793,12 +4798,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4811,12 +4816,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>261.33333333333331</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>7.0138335341758879E-4</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>261.33333333333331</v>
       </c>
@@ -4825,16 +4830,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0</v>
       </c>
@@ -4953,17 +4958,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0762.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4973,40 +4978,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>中国联通</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>30598124345</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>198887.8082425</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>201947.620677</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5014,11 +5019,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -5029,22 +5034,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0010</v>
       </c>
@@ -5053,7 +5058,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5073,7 +5078,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5084,7 +5089,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5098,11 +5103,11 @@
       <c r="B12" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5111,7 +5116,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5122,7 +5127,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5133,10 +5138,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5148,10 +5153,10 @@
       <c r="B17" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5173,14 +5178,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5188,7 +5193,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.73743481563190261</v>
       </c>
@@ -5199,7 +5204,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>7.0138335341758879E-4</v>
       </c>
@@ -5211,46 +5216,46 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178">
+      <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.13401570468255156</v>
+        <v>0.13620249913534974</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>5.3167363129601151E-3</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>260</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.608134486129014</v>
+        <v>22.977041572052201</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0.22719184534497058</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0</v>
       </c>
@@ -5259,14 +5264,14 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>2.9355219356749174E-2</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
         <v>0</v>
       </c>
@@ -5287,10 +5292,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5298,22 +5303,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.0574761994850164</v>
+        <v>1.9574662195250438</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.0874851408251445</v>
+        <v>3.8358799510594168</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.4205602346882547</v>
-      </c>
-      <c r="G29" s="273">
+        <v>2.3029014347353458</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.5543349050653434</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>3.3355477835299281</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5325,17 +5330,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -5345,7 +5350,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="str">
+      <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -5353,17 +5358,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5373,24 +5378,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -5400,7 +5405,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -5419,10 +5424,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -6404,16 +6409,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6427,11 +6432,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6464,7 +6469,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6528,47 +6533,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>372597</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>354944</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6630,47 +6635,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6681,47 +6686,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>372597</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>354944</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6732,47 +6737,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>274766</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>256870</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6783,47 +6788,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6834,47 +6839,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>261.33333333333331</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>122.66666666666667</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6882,50 +6887,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.26186380101467988</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>0.27596278098329124</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6933,50 +6938,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>97569.666666666672</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>97951.333333333328</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6984,50 +6989,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-3.8964928161603074E-3</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -7038,47 +7043,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7089,47 +7094,47 @@
       <c r="B17" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>1981</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>1095</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7140,47 +7145,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153">
+      <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>0.22771788286003378</v>
       </c>
-      <c r="D18" s="153">
+      <c r="D18" s="152">
         <f t="shared" si="6"/>
         <v>0.2446273214929679</v>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7191,47 +7196,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200">
+      <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>84847</v>
       </c>
-      <c r="D19" s="200">
+      <c r="D19" s="199">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>86829</v>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7242,47 +7247,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>5.2603751506319157E-4</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>2.5919581680490446E-4</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7293,47 +7298,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200">
+      <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>196</v>
       </c>
-      <c r="D21" s="200">
+      <c r="D21" s="199">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>92</v>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7344,47 +7349,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>10937.666666666672</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>10119.333333333328</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7395,47 +7400,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>2.201641451756188E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>2.1382246213487187E-2</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7446,7 +7451,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>8203.2500000000036</v>
       </c>
@@ -7494,50 +7499,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>8.0868304894921611E-2</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7654,43 +7659,43 @@
         <f>Fin_Analysis!C28</f>
         <v>534183</v>
       </c>
-      <c r="D28" s="200">
+      <c r="D28" s="199">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v>498104</v>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7705,43 +7710,43 @@
         <f>Fin_Analysis!C13</f>
         <v>100939</v>
       </c>
-      <c r="D29" s="200">
+      <c r="D29" s="199">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>68428</v>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7756,43 +7761,43 @@
         <f>Fin_Analysis!C18</f>
         <v>12616</v>
       </c>
-      <c r="D30" s="200">
+      <c r="D30" s="199">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>12026</v>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7807,43 +7812,43 @@
         <f>Fin_Analysis!I28</f>
         <v>554255</v>
       </c>
-      <c r="D31" s="200">
+      <c r="D31" s="199">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>558565</v>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7858,43 +7863,43 @@
         <f>Fin_Analysis!I48</f>
         <v>83483</v>
       </c>
-      <c r="D32" s="200">
+      <c r="D32" s="199">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v>88107</v>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7909,43 +7914,43 @@
         <f>Fin_Analysis!I15</f>
         <v>33448</v>
       </c>
-      <c r="D33" s="200">
+      <c r="D33" s="199">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>35175</v>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7960,43 +7965,43 @@
         <f>Fin_Analysis!I34</f>
         <v>62222</v>
       </c>
-      <c r="D34" s="200">
+      <c r="D34" s="199">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>67759</v>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -8062,43 +8067,43 @@
         <f>Fin_Analysis!D3</f>
         <v>1383869</v>
       </c>
-      <c r="D36" s="200">
+      <c r="D36" s="199">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>1345985</v>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8113,43 +8118,43 @@
         <f>Fin_Analysis!D4</f>
         <v>4325</v>
       </c>
-      <c r="D37" s="200">
+      <c r="D37" s="199">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>4253</v>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8164,43 +8169,43 @@
         <f>Fin_Analysis!C63</f>
         <v>817499</v>
       </c>
-      <c r="D38" s="200">
+      <c r="D38" s="199">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>795161</v>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8262,47 +8267,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>8.1030660594121687E-2</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>8.1796793754077946E-2</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8331,47 +8336,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8382,47 +8387,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.73743481563190261</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.72369162459430225</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8433,47 +8438,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8484,47 +8489,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>5.3167363129601151E-3</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>3.0849936891453301E-3</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8535,47 +8540,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>7.0138335341758879E-4</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>3.4559442240653928E-4</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8586,47 +8591,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0.22719184534497058</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0.24436812567616301</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8637,47 +8642,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>2.9355219356749174E-2</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>2.8509661617982917E-2</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8706,47 +8711,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0.27090663639267087</v>
       </c>
-      <c r="D50" s="157">
+      <c r="D50" s="156">
         <f t="shared" si="41"/>
         <v>0.19278534078615217</v>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8757,47 +8762,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>3.3859639234883804E-2</v>
       </c>
-      <c r="D51" s="154">
+      <c r="D51" s="153">
         <f t="shared" si="42"/>
         <v>3.3881401009736745E-2</v>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8825,47 +8830,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157">
+      <c r="C53" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.31546091797268211</v>
       </c>
-      <c r="D53" s="157">
+      <c r="D53" s="156">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.32452750272625946</v>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8875,47 +8880,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158">
+      <c r="C54" s="157">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>0.11432702693285954</v>
       </c>
-      <c r="D54" s="158">
+      <c r="D54" s="157">
         <f t="shared" si="44"/>
         <v>9.8308948776238456E-2</v>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8925,47 +8930,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.18111724011824573</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>0.10820870940114637</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8975,47 +8980,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159">
+      <c r="C56" s="158">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>0.96378562214143304</v>
       </c>
-      <c r="D56" s="159">
+      <c r="D56" s="158">
         <f t="shared" si="46"/>
         <v>0.89175655474295745</v>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10313,8 +10318,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10363,7 +10368,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>1379544</v>
       </c>
@@ -10407,11 +10412,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25390.34309597018</v>
+        <v>-25367.038398629455</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0183473602602342</v>
+        <v>1.0183305200121033</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -10460,7 +10465,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10507,7 +10512,7 @@
         <f>Inputs!C48</f>
         <v>172891</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10535,7 +10540,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10563,7 +10568,7 @@
         <f>Inputs!C50</f>
         <v>100939</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10591,7 +10596,7 @@
         <f>Inputs!C51</f>
         <v>176336</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10604,7 +10609,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10619,7 +10624,7 @@
         <f>Inputs!C52</f>
         <v>19344</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10646,7 +10651,7 @@
         <f>Inputs!C53</f>
         <v>22728</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10668,7 +10673,7 @@
         <f>Inputs!C54</f>
         <v>28822</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10690,7 +10695,7 @@
         <f>Inputs!C55</f>
         <v>12616</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10711,7 +10716,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10736,7 +10741,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10763,7 +10768,7 @@
         <f>Inputs!C58</f>
         <v>507</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10784,7 +10789,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10949,7 +10954,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>554255</v>
       </c>
@@ -10978,7 +10983,7 @@
         <f>Inputs!C60</f>
         <v>75495</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -11004,7 +11009,7 @@
         <f>Inputs!C61</f>
         <v>182795</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -11031,7 +11036,7 @@
         <f>Inputs!C62</f>
         <v>5625</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -11058,7 +11063,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11074,7 +11079,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11088,7 +11093,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11115,7 +11120,7 @@
         <f>Inputs!C65</f>
         <v>185013</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11141,7 +11146,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11168,7 +11173,7 @@
         <f>Inputs!C67</f>
         <v>94862</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11195,7 +11200,7 @@
         <f>Inputs!C68</f>
         <v>781712</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11216,7 +11221,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11237,7 +11242,7 @@
         <f>Inputs!C70</f>
         <v>34291</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11258,7 +11263,7 @@
         <f>Inputs!C71</f>
         <v>47891</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11279,7 +11284,7 @@
         <f>Inputs!C72</f>
         <v>79740</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11425,7 +11430,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>83483</v>
       </c>
@@ -11534,11 +11539,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>95670</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11549,11 +11554,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11565,11 +11570,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11665,8 +11670,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>95670</v>
@@ -11746,8 +11751,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>542068</v>
@@ -11783,19 +11788,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11805,18 +11810,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11827,17 +11832,17 @@
         <f>Data!C6</f>
         <v>372597</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>372597</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>372597</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11848,23 +11853,23 @@
         <f>Data!C8</f>
         <v>0</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>0</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>0</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0</v>
       </c>
@@ -11874,21 +11879,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>372597</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>372597</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>372597</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11899,23 +11904,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>274766</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.73743481563190261</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>274766</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.73743481563190261</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>274766</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.73743481563190261</v>
       </c>
@@ -11929,54 +11934,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>261.33333333333331</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>7.0138335341758879E-4</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>261.33333333333331</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>7.0138335341758879E-4</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>261.33333333333331</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>7.0138335341758879E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>97569.666666666672</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.26186380101467988</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>97569.666666666672</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.26186380101467988</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>97569.666666666672</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.26186380101467988</v>
       </c>
@@ -11990,27 +11995,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -12022,23 +12027,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>1981</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>5.3167363129601151E-3</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>1981</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>5.3167363129601151E-3</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>1981</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>5.3167363129601151E-3</v>
       </c>
@@ -12052,23 +12057,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>84651</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0.22719184534497058</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>84651</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0.22719184534497058</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>84651</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0.22719184534497058</v>
       </c>
@@ -12078,27 +12083,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>10937.666666666672</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>2.9355219356749174E-2</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>10937.666666666672</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>2.9355219356749174E-2</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>10937.666666666672</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>2.9355219356749174E-2</v>
       </c>
@@ -12108,49 +12113,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>8203.2500000000036</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>2.201641451756188E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>8203.2500000000036</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>2.201641451756188E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>8203.2500000000036</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>2.201641451756188E-2</v>
       </c>
@@ -12160,69 +12165,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.26809649857967477</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.26809649857967477</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.26809649857967477</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4231867101354141E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>4.3521703908841587E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4231867101354141E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>4.3521703908841587E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4231867101354141E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>4.3521703908841587E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0</v>
       </c>
@@ -12232,21 +12237,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="I89" s="210"/>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12268,22 +12273,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12293,9 +12298,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12303,15 +12308,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>5.1734975856294945</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>4.9365638706737105</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>5.1734975856294945</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>4.9365638706737105</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12319,23 +12324,26 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="K94" s="24"/>
@@ -12357,14 +12365,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12379,21 +12387,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>78702.740322520971</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>75098.344585754356</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.5721426396968572</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>2.4543447088130446</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.5721426396968572</v>
+        <v>2.4543447088130446</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.705917310073946</v>
+        <v>3.4869910576076268</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12403,16 +12411,16 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4638.1372769673671</v>
-      </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+        <v>4633.8801314433422</v>
+      </c>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.1515824050086024</v>
-      </c>
-      <c r="I98" s="216"/>
+        <v>0.15144327407769878</v>
+      </c>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12423,17 +12431,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12442,27 +12450,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>74064.603045553609</v>
+        <v>70464.464454311019</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.0574761994850164</v>
+        <v>1.9574662195250438</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.4205602346882547</v>
+        <v>2.3029014347353458</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.4205602346882547</v>
+        <v>2.3029014347353458</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.4205602346882547</v>
+        <v>2.3029014347353458</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.5543349050653434</v>
+        <v>3.3355477835299281</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12481,14 +12489,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12542,14 +12550,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12564,27 +12572,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>37032.301522776805</v>
+        <v>35232.232227155509</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.0287380997425082</v>
+        <v>0.97873310976252192</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2102801173441273</v>
+        <v>1.1514507173676729</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.2102801173441273</v>
+        <v>1.1514507173676729</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.2102801173441273</v>
+        <v>1.1514507173676729</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.7771674525326717</v>
+        <v>1.667773891764964</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8028E1C3-2CCC-441D-B7AE-0BB4BC0CFC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DA23478-DBFE-420D-A563-B8EFCD6F48F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3574,7 +3574,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4656,7 +4656,9 @@
       <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4968,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.6</v>
+        <v>6.65</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -5009,7 +5011,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>201947.620677</v>
+        <v>203477.52689425001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5058,7 +5060,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5104,10 +5106,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5154,7 +5156,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5225,7 +5227,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.13620249913534974</v>
+        <v>0.13752485980717272</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5241,7 +5243,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>22.977041572052201</v>
+        <v>23.200120710266322</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5303,20 +5305,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9574662195250438</v>
+        <v>1.949160129191154</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.8358799510594168</v>
+        <v>3.4672023863938648</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.3029014347353458</v>
+        <v>2.2931295637542988</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.3355477835299281</v>
+        <v>3.0149585968642305</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10412,11 +10414,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25367.038398629455</v>
+        <v>-25313.450107461238</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0183305200121033</v>
+        <v>1.0182917964832374</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12188,17 +12190,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3521703908841587E-2</v>
+        <v>4.3103224008549594E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3521703908841587E-2</v>
+        <v>4.3103224008549594E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3521703908841587E-2</v>
+        <v>4.3103224008549594E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12298,7 +12300,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12309,14 +12311,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.9365638706737105</v>
+        <v>4.9162656613977971</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.9365638706737105</v>
+        <v>4.9162656613977971</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12330,7 +12332,7 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
@@ -12387,21 +12389,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>75098.344585754356</v>
+        <v>74789.554513426512</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.4543447088130446</v>
+        <v>2.4442529113928444</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.4543447088130446</v>
+        <v>2.4442529113928444</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.4869910576076268</v>
+        <v>3.1660819445027757</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12411,14 +12413,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4633.8801314433422</v>
+        <v>4624.0909824768696</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.15144327407769878</v>
+        <v>0.15112334763854524</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12450,27 +12452,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>70464.464454311019</v>
+        <v>70165.463530949637</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.9574662195250438</v>
+        <v>1.949160129191154</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.3029014347353458</v>
+        <v>2.2931295637542992</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.3029014347353458</v>
+        <v>2.2931295637542988</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.3029014347353458</v>
+        <v>2.2931295637542983</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.3355477835299281</v>
+        <v>3.0149585968642305</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12572,27 +12574,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35232.232227155509</v>
+        <v>35082.731765474826</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.97873310976252192</v>
+        <v>0.974580064595577</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.1514507173676729</v>
+        <v>1.1465647818771496</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.1514507173676729</v>
+        <v>1.1465647818771494</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.1514507173676729</v>
+        <v>1.1465647818771492</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.667773891764964</v>
+        <v>1.5074792984321153</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DA23478-DBFE-420D-A563-B8EFCD6F48F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE151BE-7416-4140-B57A-EFA9844EA9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.65</v>
+        <v>6.69</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>203477.52689425001</v>
+        <v>204701.45186805</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5060,7 +5060,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5227,7 +5227,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.13752485980717272</v>
+        <v>0.13816499603239679</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.200120710266322</v>
+        <v>23.308110187347307</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5305,20 +5305,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.949160129191154</v>
+        <v>1.9498086364144305</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.4672023863938648</v>
+        <v>3.4684083814889113</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.2931295637542988</v>
+        <v>2.2938925134287418</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.0149585968642305</v>
+        <v>3.0160072882512274</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10414,11 +10414,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25313.450107461238</v>
+        <v>-25347.725539761806</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0182917964832374</v>
+        <v>1.0183165643133576</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12190,17 +12190,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3103224008549594E-2</v>
+        <v>4.2903521219101029E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3103224008549594E-2</v>
+        <v>4.2903521219101029E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3103224008549594E-2</v>
+        <v>4.2903521219101029E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12311,14 +12311,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.9162656613977971</v>
+        <v>4.9182118039121931</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.9162656613977971</v>
+        <v>4.9182118039121931</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12389,21 +12389,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>74789.554513426512</v>
+        <v>74819.16054810732</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.4442529113928444</v>
+        <v>2.4452204881745772</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.4442529113928444</v>
+        <v>2.4452204881745772</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.1660819445027757</v>
+        <v>3.1673352629970628</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12413,14 +12413,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4624.0909824768696</v>
+        <v>4630.3521881500874</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.15112334763854524</v>
+        <v>0.15132797474583526</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12452,27 +12452,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>70165.463530949637</v>
+        <v>70188.808359957227</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.949160129191154</v>
+        <v>1.9498086364144305</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.2931295637542992</v>
+        <v>2.2938925134287418</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.2931295637542988</v>
+        <v>2.2938925134287418</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.2931295637542983</v>
+        <v>2.2938925134287418</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.0149585968642305</v>
+        <v>3.0160072882512274</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12574,27 +12574,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35082.731765474826</v>
+        <v>35094.404179978614</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.974580064595577</v>
+        <v>0.97490431820721524</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.1465647818771496</v>
+        <v>1.1469462567143709</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.1465647818771494</v>
+        <v>1.1469462567143709</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.1465647818771492</v>
+        <v>1.1469462567143709</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5074792984321153</v>
+        <v>1.5080036441256137</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBE151BE-7416-4140-B57A-EFA9844EA9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AF29143-644B-4FFA-AA44-A2B095233DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -941,6 +941,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0762.HK</t>
   </si>
   <si>
@@ -951,9 +962,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>HKD</t>
@@ -3574,7 +3582,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3595,7 +3603,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3603,7 +3611,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3636,7 +3644,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3652,7 +3660,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3684,7 +3692,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4313,7 +4321,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="C54" s="59">
         <f>20726+8096</f>
@@ -4440,7 +4448,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4970,10 +4978,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.69</v>
+        <v>6.83</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5011,7 +5019,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>204701.45186805</v>
+        <v>208985.18927634999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5060,7 +5068,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5106,10 +5114,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5156,7 +5164,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5227,7 +5235,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.13816499603239679</v>
+        <v>0.14098949013733544</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5243,7 +5251,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.308110187347307</v>
+        <v>23.78459570619744</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5305,20 +5313,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9498086364144305</v>
+        <v>2.3358146776246791</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.4684083814889113</v>
+        <v>4.3796894067102157</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.2938925134287418</v>
+        <v>2.74801726779374</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.0160072882512274</v>
+        <v>3.808425571052362</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10414,11 +10422,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25347.725539761806</v>
+        <v>-25359.744332242037</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0183165643133576</v>
+        <v>1.0183252492340258</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12190,17 +12198,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2903521219101029E-2</v>
+        <v>4.2044019261569143E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2903521219101029E-2</v>
+        <v>4.2044019261569143E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2903521219101029E-2</v>
+        <v>4.2044019261569143E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12300,7 +12308,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12311,14 +12319,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.9182118039121931</v>
+        <v>5.8317632138694089</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.9182118039121931</v>
+        <v>5.8317632138694089</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12389,21 +12397,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>74819.16054810732</v>
+        <v>88716.721762565139</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.4452204881745772</v>
+        <v>2.8994169957042555</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.4452204881745772</v>
+        <v>2.8994169957042555</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.1673352629970628</v>
+        <v>3.9598252989628775</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12413,14 +12421,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4630.3521881500874</v>
+        <v>4632.5477004051208</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.15132797474583526</v>
+        <v>0.15139972791051551</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12452,27 +12460,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>70188.808359957227</v>
+        <v>84084.174062160018</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.9498086364144305</v>
+        <v>2.3358146776246791</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.2938925134287418</v>
+        <v>2.74801726779374</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.2938925134287418</v>
+        <v>2.74801726779374</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.2938925134287418</v>
+        <v>2.74801726779374</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.0160072882512274</v>
+        <v>3.808425571052362</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12574,27 +12582,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>35094.404179978614</v>
+        <v>42042.087031080009</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>0.97490431820721524</v>
+        <v>1.1679073388123395</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.1469462567143709</v>
+        <v>1.37400863389687</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.1469462567143709</v>
+        <v>1.37400863389687</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.1469462567143709</v>
+        <v>1.37400863389687</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.5080036441256137</v>
+        <v>1.904212785526181</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AF29143-644B-4FFA-AA44-A2B095233DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FA75D11-BD82-41F1-B96B-4FA6A72AF5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
   <si>
     <t>Company Info:</t>
   </si>
@@ -949,6 +949,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3581,7 +3585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3603,7 +3607,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3611,7 +3615,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3644,7 +3648,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3660,7 +3664,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -4978,10 +4982,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.83</v>
+        <v>6.79</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5019,7 +5023,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>208985.18927634999</v>
+        <v>207761.26430255</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5068,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5089,7 +5093,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5100,7 +5104,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5127,7 +5131,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5235,7 +5239,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.14098949013733544</v>
+        <v>0.14026854986395715</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5251,7 +5255,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.78459570619744</v>
+        <v>23.66297477605637</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5313,20 +5317,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.3358146776246791</v>
+        <v>2.3366245913244179</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.3796894067102157</v>
+        <v>4.3811383675896334</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.74801726779374</v>
+        <v>2.748970107440492</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.808425571052362</v>
+        <v>3.809685537034464</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5361,8 +5365,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
@@ -6388,12 +6392,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8819,118 +8823,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156">
+      <c r="C54" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.31546091797268211</v>
       </c>
-      <c r="D53" s="156">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
+      <c r="D54" s="156">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
         <v>0.32452750272625946</v>
       </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.11432702693285954</v>
-      </c>
-      <c r="D54" s="157">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
-        <v>9.8308948776238456E-2</v>
-      </c>
-      <c r="E54" s="157" t="str">
+        <v/>
+      </c>
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8938,107 +8943,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.18111724011824573</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>0.11432702693285954</v>
+      </c>
+      <c r="D55" s="157">
         <f t="shared" si="45"/>
-        <v>0.10820870940114637</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v>9.8308948776238456E-2</v>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.18111724011824573</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>0.10820870940114637</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>0.96378562214143304</v>
       </c>
-      <c r="D56" s="158">
-        <f t="shared" si="46"/>
+      <c r="D57" s="158">
+        <f t="shared" si="47"/>
         <v>0.89175655474295745</v>
       </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9606,7 +9658,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10289,6 +10343,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10422,11 +10477,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25359.744332242037</v>
+        <v>-25340.803091615464</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0183252492340258</v>
+        <v>1.0183115620709875</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12198,17 +12253,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2044019261569143E-2</v>
+        <v>4.2260113509137512E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2044019261569143E-2</v>
+        <v>4.2260113509137512E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2044019261569143E-2</v>
+        <v>4.2260113509137512E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12319,14 +12374,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.8317632138694089</v>
+        <v>5.8334522689805395</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.8317632138694089</v>
+        <v>5.8334522689805395</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12397,21 +12452,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>88716.721762565139</v>
+        <v>88742.416809987393</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.8994169957042555</v>
+        <v>2.9002567546101461</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.8994169957042555</v>
+        <v>2.9002567546101461</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.9598252989628775</v>
+        <v>3.9609721842041181</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12421,14 +12476,14 @@
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
-        <v>4632.5477004051208</v>
+        <v>4629.0876418352127</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.15139972791051551</v>
+        <v>0.1512866471696539</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12460,27 +12515,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>84084.174062160018</v>
+        <v>84113.329168152181</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.3358146776246791</v>
+        <v>2.3366245913244179</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>2.74801726779374</v>
+        <v>2.748970107440492</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.74801726779374</v>
+        <v>2.748970107440492</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.74801726779374</v>
+        <v>2.7489701074404915</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>3.808425571052362</v>
+        <v>3.809685537034464</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12582,27 +12637,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>42042.087031080009</v>
+        <v>42056.66458407609</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1679073388123395</v>
+        <v>1.168312295662209</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.37400863389687</v>
+        <v>1.374485053720246</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.37400863389687</v>
+        <v>1.374485053720246</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.37400863389687</v>
+        <v>1.3744850537202458</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.904212785526181</v>
+        <v>1.904842768517232</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FA75D11-BD82-41F1-B96B-4FA6A72AF5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE85DAF8-CFBD-433C-A1C8-67F53EAD52C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4982,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.79</v>
+        <v>6.77</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>207761.26430255</v>
+        <v>207149.30181564999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5072,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.14026854986395715</v>
+        <v>0.13990767282248417</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.66297477605637</v>
+        <v>23.602095667104901</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5317,20 +5317,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.3366245913244179</v>
+        <v>2.3370402883647694</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.3811383675896334</v>
+        <v>4.3818826944454203</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.748970107440492</v>
+        <v>2.7494591627820819</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.809685537034464</v>
+        <v>3.8103327777786267</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10383,8 +10383,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10477,11 +10477,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25340.803091615464</v>
+        <v>-25331.332941705012</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0183115620709875</v>
+        <v>1.018304718829387</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12253,17 +12253,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2260113509137512E-2</v>
+        <v>4.2369119001315479E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2260113509137512E-2</v>
+        <v>4.2369119001315479E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2260113509137512E-2</v>
+        <v>4.2369119001315479E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12374,14 +12374,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.8334522689805395</v>
+        <v>5.8343222167250621</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.8334522689805395</v>
+        <v>5.8343222167250621</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12452,21 +12452,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>88742.416809987393</v>
+        <v>88755.651042786019</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.9002567546101461</v>
+        <v>2.900689272389648</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.9002567546101461</v>
+        <v>2.900689272389648</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.9609721842041181</v>
+        <v>3.9615628873861928</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12475,15 +12475,15 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
-        <v>4629.0876418352127</v>
+        <f>-E53*Exchange_Rate</f>
+        <v>-4627.3576984802876</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0.1512866471696539</v>
+        <v>-0.15123010960756614</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12514,28 +12514,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>84113.329168152181</v>
+        <f>C97+C98+$C$99</f>
+        <v>84128.293344305726</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.3366245913244179</v>
+        <v>2.3370402883647694</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>2.748970107440492</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>2.7494591627820819</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.748970107440492</v>
+        <v>2.7494591627820819</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.7489701074404915</v>
+        <v>2.7494591627820815</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>3.809685537034464</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>3.8103327777786267</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12637,27 +12637,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>42056.66458407609</v>
+        <v>42064.14667215287</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.168312295662209</v>
+        <v>1.1685201441823847</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.374485053720246</v>
+        <v>1.374729581391041</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.374485053720246</v>
+        <v>1.374729581391041</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.3744850537202458</v>
+        <v>1.3747295813910407</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.904842768517232</v>
+        <v>1.9051663888893133</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE85DAF8-CFBD-433C-A1C8-67F53EAD52C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C60B00F6-D78F-4921-8E53-C158DA1BB130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4982,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.77</v>
+        <v>6.84</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>207149.30181564999</v>
+        <v>209291.17051979998</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5072,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.13990767282248417</v>
+        <v>0.14130787135683709</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.602095667104901</v>
+        <v>23.838305869833867</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5317,20 +5317,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.3370402883647694</v>
+        <v>2.3328449567535094</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.3818826944454203</v>
+        <v>4.3741516418079192</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.7494591627820819</v>
+        <v>2.7445234785335404</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.8103327777786267</v>
+        <v>3.803610123311234</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10477,11 +10477,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25331.332941705012</v>
+        <v>-25339.652486276653</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.018304718829387</v>
+        <v>1.0183107306300501</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12253,17 +12253,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2369119001315479E-2</v>
+        <v>4.1949289746527153E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2369119001315479E-2</v>
+        <v>4.1949289746527153E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2369119001315479E-2</v>
+        <v>4.1949289746527153E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12374,14 +12374,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.8343222167250621</v>
+        <v>5.8244946935393704</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.8343222167250621</v>
+        <v>5.8244946935393704</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12452,21 +12452,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>88755.651042786019</v>
+        <v>88606.148120924132</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.900689272389648</v>
+        <v>2.8958032564961176</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.900689272389648</v>
+        <v>2.8958032564961176</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.9615628873861928</v>
+        <v>3.9548899012738112</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12476,14 +12476,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-4627.3576984802876</v>
+        <v>-4628.8774569829311</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.15123010960756614</v>
+        <v>-0.1512797779625773</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12515,27 +12515,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>84128.293344305726</v>
+        <v>83977.270663941206</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.3370402883647694</v>
+        <v>2.3328449567535094</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.7494591627820819</v>
+        <v>2.7445234785335404</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.7494591627820819</v>
+        <v>2.7445234785335404</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.7494591627820815</v>
+        <v>2.7445234785335404</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.8103327777786267</v>
+        <v>3.803610123311234</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12637,27 +12637,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>42064.14667215287</v>
+        <v>41988.635331970603</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1685201441823847</v>
+        <v>1.1664224783767547</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.374729581391041</v>
+        <v>1.3722617392667702</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.374729581391041</v>
+        <v>1.3722617392667702</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.3747295813910407</v>
+        <v>1.3722617392667702</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.9051663888893133</v>
+        <v>1.901805061655617</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C60B00F6-D78F-4921-8E53-C158DA1BB130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C2F82C-D174-45B5-81B3-5F4E97049BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4982,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.84</v>
+        <v>6.93</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>209291.17051979998</v>
+        <v>212045.00171085002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5072,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5118,10 +5118,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5168,7 +5168,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.14130787135683709</v>
+        <v>0.14318056045909963</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>23.838305869833867</v>
+        <v>24.154224121168276</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5317,20 +5317,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.3328449567535094</v>
+        <v>2.113101822160639</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.3741516418079192</v>
+        <v>3.859639836037577</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.7445234785335404</v>
+        <v>2.486002143718399</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.803610123311234</v>
+        <v>3.3562085530761543</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10477,11 +10477,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25339.652486276653</v>
+        <v>-25337.285419201875</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0183107306300501</v>
+        <v>1.0183090201595686</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12253,17 +12253,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1949289746527153E-2</v>
+        <v>4.1400626034748936E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1949289746527153E-2</v>
+        <v>4.1400626034748936E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1949289746527153E-2</v>
+        <v>4.1400626034748936E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12363,7 +12363,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12374,14 +12374,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.8244946935393704</v>
+        <v>5.3044875249774561</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.8244946935393704</v>
+        <v>5.3044875249774561</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12452,21 +12452,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>88606.148120924132</v>
+        <v>80695.447772506363</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.8958032564961176</v>
+        <v>2.6372677900987975</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.8958032564961176</v>
+        <v>2.6372677900987975</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.9548899012738112</v>
+        <v>3.5074741994565528</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12476,14 +12476,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-4628.8774569829311</v>
+        <v>-4628.4450570742283</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.1512797779625773</v>
+        <v>-0.15126564638039836</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12515,27 +12515,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>83977.270663941206</v>
+        <v>76067.002715432129</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.3328449567535094</v>
+        <v>2.113101822160639</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.7445234785335404</v>
+        <v>2.486002143718399</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.7445234785335404</v>
+        <v>2.486002143718399</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.7445234785335404</v>
+        <v>2.486002143718399</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.803610123311234</v>
+        <v>3.3562085530761543</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12637,27 +12637,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>41988.635331970603</v>
+        <v>38033.501357716064</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.1664224783767547</v>
+        <v>1.0565509110803195</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.3722617392667702</v>
+        <v>1.2430010718591995</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.3722617392667702</v>
+        <v>1.2430010718591995</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.3722617392667702</v>
+        <v>1.2430010718591995</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.901805061655617</v>
+        <v>1.6781042765380771</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C2F82C-D174-45B5-81B3-5F4E97049BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2236E7C0-34A7-4C52-935F-8EBE2232F1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -5072,7 +5083,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5239,7 +5250,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.14318056045909963</v>
+        <v>0.14331014979456522</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5255,7 +5266,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.154224121168276</v>
+        <v>24.176085537568046</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5317,20 +5328,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.113101822160639</v>
+        <v>2.1107885011206169</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.859639836037577</v>
+        <v>3.855425424355436</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.486002143718399</v>
+        <v>2.4832805895536669</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.3562085530761543</v>
+        <v>3.3525438472655966</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10477,11 +10488,11 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25337.285419201875</v>
+        <v>-25314.373978632713</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0183090201595686</v>
+        <v>1.0182924640834015</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -12253,17 +12264,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1400626034748936E-2</v>
+        <v>4.1363189191487008E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1400626034748936E-2</v>
+        <v>4.1363189191487008E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1400626034748936E-2</v>
+        <v>4.1363189191487008E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12374,14 +12385,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.3044875249774561</v>
+        <v>5.2987383876628567</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.3044875249774561</v>
+        <v>5.2987383876628567</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12452,21 +12463,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>80695.447772506363</v>
+        <v>80607.988011742913</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.6372677900987975</v>
+        <v>2.6344094527779434</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.6372677900987975</v>
+        <v>2.6344094527779434</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.5074741994565528</v>
+        <v>3.5036727104898731</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12476,14 +12487,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-4628.4450570742283</v>
+        <v>-4624.2597490549088</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.15126564638039836</v>
+        <v>-0.15112886322427646</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12515,27 +12526,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>76067.002715432129</v>
+        <v>75983.728262688004</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.113101822160639</v>
+        <v>2.1107885011206169</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.486002143718399</v>
+        <v>2.4832805895536669</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.486002143718399</v>
+        <v>2.4832805895536669</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.486002143718399</v>
+        <v>2.4832805895536669</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.3562085530761543</v>
+        <v>3.3525438472655966</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12637,27 +12648,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>38033.501357716064</v>
+        <v>37991.864131344002</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.0565509110803195</v>
+        <v>1.0553942505603084</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2430010718591995</v>
+        <v>1.2416402947768335</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.2430010718591995</v>
+        <v>1.2416402947768335</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.2430010718591995</v>
+        <v>1.2416402947768335</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.6781042765380771</v>
+        <v>1.6762719236327983</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2236E7C0-34A7-4C52-935F-8EBE2232F1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB6CF651-14EB-43CC-ABCA-98872984B86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -964,6 +943,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1540,7 +1555,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2180,6 +2195,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3596,7 +3621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3610,28 +3635,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45624</v>
@@ -3647,24 +3672,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>30598124345</v>
@@ -3672,10 +3697,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3696,7 +3721,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3704,15 +3729,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3721,61 +3746,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3844,7 +3869,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>0</v>
@@ -3864,7 +3889,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <f>11294+C29+60026+62939+36403+102123</f>
@@ -3886,7 +3911,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3902,7 +3927,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>1981</v>
@@ -3922,7 +3947,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>196</v>
@@ -3942,7 +3967,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3958,7 +3983,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150">
         <v>84847</v>
@@ -3978,7 +4003,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150">
         <f>C30</f>
@@ -4018,7 +4043,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150">
@@ -4037,7 +4062,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -4073,7 +4098,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -4127,7 +4152,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150">
@@ -4145,7 +4170,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4163,7 +4188,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150">
@@ -4182,7 +4207,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250"/>
       <c r="D44" s="250"/>
@@ -4198,7 +4223,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152" t="str">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4247,21 +4272,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59">
         <f>40818+132073</f>
@@ -4274,7 +4299,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4284,7 +4309,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59">
         <f>84342+15901+696</f>
@@ -4298,7 +4323,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59">
         <v>176336</v>
@@ -4310,7 +4335,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59">
         <f>19344</f>
@@ -4323,7 +4348,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59">
         <v>22728</v>
@@ -4336,7 +4361,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C54" s="59">
         <f>20726+8096</f>
@@ -4349,7 +4374,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59">
         <v>12616</v>
@@ -4362,7 +4387,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4370,24 +4395,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59">
         <v>507</v>
@@ -4400,7 +4425,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4411,7 +4436,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59">
         <f>75495</f>
@@ -4425,7 +4450,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59">
         <f>6083+176712</f>
@@ -4439,7 +4464,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59">
         <v>5625</v>
@@ -4452,7 +4477,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4463,7 +4488,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4473,7 +4498,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59">
         <v>185013</v>
@@ -4482,24 +4507,24 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59">
         <v>94862</v>
@@ -4509,12 +4534,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59">
         <f>680172+86890+14650</f>
@@ -4528,7 +4553,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4539,7 +4564,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59">
         <f>2319+31972</f>
@@ -4552,7 +4577,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59">
         <v>47891</v>
@@ -4565,7 +4590,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247">
         <f>35301+44439</f>
@@ -4578,13 +4603,13 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59">
         <v>33448</v>
@@ -4592,13 +4617,13 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4612,13 +4637,13 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59">
         <v>62222</v>
@@ -4626,19 +4651,19 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83">
         <v>83483</v>
@@ -4646,7 +4671,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59">
         <v>1379544</v>
@@ -4654,19 +4679,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4674,10 +4699,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4685,18 +4710,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4705,20 +4730,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4736,7 +4761,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4757,7 +4782,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4778,7 +4803,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4796,7 +4821,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4817,7 +4842,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4835,7 +4860,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4853,7 +4878,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4981,62 +5006,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0762.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.93</v>
+        <v>6.95</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>中国联通</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>30598124345</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>212045.00171085002</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>212656.96419775</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5059,16 +5084,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5083,7 +5108,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5093,40 +5118,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5139,29 +5164,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5171,12 +5196,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5186,29 +5211,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5216,7 +5241,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5227,58 +5252,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>7.0138335341758879E-4</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.14331014979456522</v>
+        <v>0.14371478086318526</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>5.3167363129601151E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.176085537568046</v>
+        <v>24.244345848091328</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0.22719184534497058</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5287,14 +5312,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>2.9355219356749174E-2</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -5308,62 +5333,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.1107885011206169</v>
+        <v>2.1096682294821054</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.855425424355436</v>
+        <v>3.8534132235738396</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.4832805895536669</v>
-      </c>
-      <c r="G29" s="274">
+        <v>2.4819626229201242</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.3525438472655966</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>3.350794107455513</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5373,25 +5398,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5401,7 +5426,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5411,14 +5436,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5428,7 +5453,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5443,14 +5468,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6403,12 +6428,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6435,16 +6460,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6462,7 +6487,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6495,7 +6520,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6506,7 +6531,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6658,7 +6683,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6709,7 +6734,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6760,7 +6785,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6811,7 +6836,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6862,7 +6887,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6913,7 +6938,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6964,7 +6989,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7015,7 +7040,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7066,7 +7091,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7117,7 +7142,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7168,7 +7193,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7219,7 +7244,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7270,7 +7295,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7321,7 +7346,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7372,7 +7397,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7423,7 +7448,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7474,7 +7499,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7525,7 +7550,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7576,7 +7601,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7729,7 +7754,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7780,7 +7805,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7882,7 +7907,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8086,7 +8111,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8137,7 +8162,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8188,7 +8213,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8239,7 +8264,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8290,7 +8315,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8341,7 +8366,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8359,7 +8384,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8410,7 +8435,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8461,7 +8486,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8512,7 +8537,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8563,7 +8588,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8614,7 +8639,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8665,7 +8690,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8716,7 +8741,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8733,50 +8758,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0.27090663639267087</v>
-      </c>
-      <c r="D50" s="156">
+      <c r="B50" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="272">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>0.30943818992980698</v>
+      </c>
+      <c r="D50" s="272">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>0.29640516544522905</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
-        <v>0.19278534078615217</v>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v/>
+      </c>
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8785,15 +8810,15 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
-        <v>3.3859639234883804E-2</v>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
+        <v>0.27090663639267087</v>
       </c>
       <c r="D51" s="153">
         <f t="shared" si="42"/>
-        <v>3.3881401009736745E-2</v>
+        <v>0.19278534078615217</v>
       </c>
       <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -8836,167 +8861,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>143</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>3.3859639234883804E-2</v>
+      </c>
+      <c r="D52" s="153">
+        <f t="shared" si="43"/>
+        <v>3.3881401009736745E-2</v>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>0.31546091797268211</v>
-      </c>
-      <c r="D54" s="156">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v>0.32452750272625946</v>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.11432702693285954</v>
-      </c>
-      <c r="D55" s="157">
+      <c r="B55" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="156">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>0.68239969489618901</v>
+      </c>
+      <c r="D55" s="156">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v>0.67333816105832567</v>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
-        <v>9.8308948776238456E-2</v>
-      </c>
-      <c r="E55" s="157" t="str">
+        <v/>
+      </c>
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9004,112 +9030,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.18111724011824573</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>0.11432702693285954</v>
+      </c>
+      <c r="D56" s="157">
         <f t="shared" si="46"/>
-        <v>0.10820870940114637</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v>9.8308948776238456E-2</v>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.18111724011824573</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.10820870940114637</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>0.96378562214143304</v>
       </c>
-      <c r="D57" s="158">
-        <f t="shared" si="47"/>
+      <c r="D58" s="158">
+        <f t="shared" si="48"/>
         <v>0.89175655474295745</v>
       </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="274">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>7.0726027344301209E-2</v>
+      </c>
+      <c r="D60" s="274">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>7.300365000859585E-2</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="274">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>7.9284652513197627E-3</v>
+      </c>
+      <c r="D61" s="274">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>7.5419929861800482E-3</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9672,7 +9888,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10355,6 +10573,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10394,8 +10613,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10413,7 +10632,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10428,7 +10647,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10442,7 +10661,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10452,7 +10671,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10470,10 +10689,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10482,22 +10701,23 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>-25314.373978632713</v>
+        <f>(E49-I49-E53)</f>
+        <v>-23676.150000000023</v>
       </c>
       <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>1.0182924640834015</v>
+        <v>1.017108664187145</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10507,8 +10727,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10520,7 +10741,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10538,7 +10759,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10557,32 +10778,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10599,7 +10820,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10610,7 +10831,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10627,7 +10848,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10638,7 +10859,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10655,7 +10876,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10666,7 +10887,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10683,7 +10904,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10694,7 +10915,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10711,7 +10932,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10721,7 +10942,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10743,7 +10964,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10765,7 +10986,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10786,7 +11007,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10811,7 +11032,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10838,7 +11059,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10859,7 +11080,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10876,7 +11097,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10888,13 +11109,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10916,7 +11137,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10936,7 +11157,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10945,7 +11166,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10965,7 +11186,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10978,7 +11199,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10998,7 +11219,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -11044,7 +11265,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11053,7 +11274,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11069,7 +11290,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11079,7 +11300,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11096,7 +11317,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11106,7 +11327,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11123,7 +11344,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11133,7 +11354,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11153,7 +11374,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11163,7 +11384,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11180,7 +11401,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11190,7 +11411,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11216,7 +11437,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11243,7 +11464,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11270,7 +11491,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11291,7 +11512,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11312,7 +11533,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11333,7 +11554,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11354,7 +11575,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11371,7 +11592,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11389,7 +11610,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11408,7 +11629,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11427,7 +11648,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11444,7 +11665,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11457,7 +11678,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11474,7 +11695,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11487,7 +11708,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11504,7 +11725,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11531,7 +11752,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11547,14 +11768,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11571,7 +11792,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11601,7 +11822,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11612,14 +11833,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>95670</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11627,30 +11848,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11667,11 +11888,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11681,7 +11902,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11702,7 +11923,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11723,7 +11944,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11744,7 +11965,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11759,7 +11980,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11790,11 +12011,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11804,7 +12025,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11825,7 +12046,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11840,7 +12061,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11862,21 +12083,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11886,23 +12107,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11923,7 +12144,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11953,7 +12174,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11974,7 +12195,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12004,7 +12225,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12034,7 +12255,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12065,7 +12286,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12092,12 +12313,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12127,7 +12348,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12157,7 +12378,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12187,7 +12408,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12208,7 +12429,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12239,7 +12460,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12260,28 +12481,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1363189191487008E-2</v>
+        <v>4.1246730527015905E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1363189191487008E-2</v>
+        <v>4.1246730527015905E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1363189191487008E-2</v>
+        <v>4.1246730527015905E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12311,7 +12532,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12342,29 +12563,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12381,24 +12602,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.2987383876628567</v>
+        <v>5.2961064426392941</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.2987383876628567</v>
+        <v>5.2961064426392941</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12409,14 +12630,14 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
@@ -12439,69 +12660,69 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>80607.988011742913</v>
+        <v>80567.949085986387</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.6344094527779434</v>
+        <v>2.6331009109436438</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.6344094527779434</v>
+        <v>2.6331009109436438</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.5036727104898731</v>
+        <v>3.5019323954790327</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-4624.2597490549088</v>
+        <v>-4624.5481302340831</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.15112886322427646</v>
+        <v>-0.15113828802351981</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12522,31 +12743,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>75983.728262688004</v>
+        <v>75943.40095575231</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.1107885011206169</v>
+        <v>2.1096682294821054</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.4832805895536669</v>
+        <v>2.4819626229201242</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.4832805895536669</v>
+        <v>2.4819626229201242</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.4832805895536669</v>
+        <v>2.4819626229201242</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.3525438472655966</v>
+        <v>3.350794107455513</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12556,34 +12777,34 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -12617,58 +12838,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>37991.864131344002</v>
+        <v>37971.700477876155</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.0553942505603084</v>
+        <v>1.0548341147410527</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2416402947768335</v>
+        <v>1.2409813114600621</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.2416402947768335</v>
+        <v>1.2409813114600621</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.2416402947768335</v>
+        <v>1.2409813114600621</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.6762719236327983</v>
+        <v>1.6753970537277565</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12677,7 +12898,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12686,6 +12907,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB6CF651-14EB-43CC-ABCA-98872984B86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C670EB5-7FC3-4DA0-87C3-4218657636DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -962,10 +928,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -979,6 +941,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1291,7 +1289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1549,13 +1547,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2205,6 +2319,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2444,981 +2582,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.73743481563190261</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0138335341758879E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.3167363129601151E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.22719184534497058</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.9355219356749174E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3621,7 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3635,28 +2798,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45624</v>
@@ -3672,7 +2835,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -3681,15 +2844,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>30598124345</v>
@@ -3697,10 +2860,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3721,7 +2884,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3729,10 +2892,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3746,55 +2909,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3927,7 +3090,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>1981</v>
@@ -4062,7 +3225,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -4170,7 +3333,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150">
@@ -4207,7 +3370,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250"/>
       <c r="D44" s="250"/>
@@ -4223,7 +3386,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152" t="str">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4272,13 +3435,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4348,7 +3511,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59">
         <v>22728</v>
@@ -4361,7 +3524,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C54" s="59">
         <f>20726+8096</f>
@@ -4477,7 +3640,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4488,7 +3651,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4671,7 +3834,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59">
         <v>1379544</v>
@@ -4691,7 +3854,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4699,10 +3862,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4712,16 +3875,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4730,10 +3893,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4782,7 +3945,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4803,7 +3966,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4821,7 +3984,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4860,7 +4023,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4878,7 +4041,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4964,8 +4127,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5006,13 +4169,13 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0762.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -5021,47 +4184,47 @@
         <v>6.95</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>中国联通</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>30598124345</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
         <v>212656.96419775</v>
       </c>
-      <c r="H5" s="279"/>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5084,16 +4247,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5108,7 +4271,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5118,40 +4281,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5164,29 +4327,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5196,12 +4359,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5209,9 +4372,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5219,91 +4382,91 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="276">
+        <f>C23*C22*(1/C21)</f>
+        <v>7.0726027344301209E-2</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.73743481563190261</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="278">
+        <f>Data!C55</f>
+        <v>0.68239969489618901</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>7.0138335341758879E-4</v>
+      <c r="B22" s="279" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="280">
+        <f>Data!C50</f>
+        <v>0.18430733569877825</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.26186380101467988</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.14371478086318526</v>
+        <v>0.14372822493831031</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>5.3167363129601151E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.244345848091328</v>
+        <v>24.246613831975679</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
-        <v>0.22719184534497058</v>
+        <f>Fin_Analysis!I80</f>
+        <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5312,14 +4475,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>2.9355219356749174E-2</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0.22719184534497058</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -5333,62 +4496,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.1096682294821054</v>
+        <v>2.1094294342093103</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.8534132235738396</v>
+        <v>3.8529781793161946</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.4819626229201242</v>
-      </c>
-      <c r="G29" s="278">
+        <v>2.4816816873050711</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.350794107455513</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>3.3504158081010389</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5398,7 +4561,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5409,14 +4572,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5426,7 +4589,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5436,14 +4599,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5453,7 +4616,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5468,14 +4631,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6419,7 +5582,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6433,7 +5595,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6460,16 +5622,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6487,7 +5649,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6520,7 +5682,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6887,7 +6049,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6938,7 +6100,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6989,7 +6151,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7040,7 +6202,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7142,7 +6304,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7295,7 +6457,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7805,7 +6967,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8315,7 +7477,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8366,7 +7528,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8435,7 +7597,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8639,7 +7801,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8741,7 +7903,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8759,15 +7921,15 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C50" s="272">
-        <f>IF(C6="","",C6/C39)</f>
-        <v>0.30943818992980698</v>
+        <f>IF(C6="","",C6/C27)</f>
+        <v>0.18430733569877825</v>
       </c>
       <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
-        <v>0.29640516544522905</v>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
+        <v>0.17812598957070885</v>
       </c>
       <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
@@ -8810,7 +7972,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8861,7 +8023,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>259</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8912,7 +8074,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8963,7 +8125,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8980,7 +8142,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C55" s="156">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9180,15 +8342,15 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="D59" s="273" t="str">
         <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="E59" s="273" t="str">
         <f t="shared" si="49"/>
@@ -9230,7 +8392,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C60" s="274">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9280,7 +8442,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C61" s="274">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10784,7 +9946,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10942,7 +10104,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11354,7 +10516,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11822,7 +10984,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11836,11 +10998,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>95670</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11851,11 +11013,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11867,11 +11029,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11888,7 +11050,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11965,7 +11127,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -12011,7 +11173,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12046,7 +11208,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12085,19 +11247,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12107,18 +11269,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12195,7 +11357,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12225,7 +11387,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12255,7 +11417,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12318,7 +11480,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12348,7 +11510,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12429,7 +11591,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12460,7 +11622,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12481,28 +11643,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1246730527015905E-2</v>
+        <v>4.1242872383327654E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1246730527015905E-2</v>
+        <v>4.1242872383327654E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1246730527015905E-2</v>
+        <v>4.1242872383327654E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12532,7 +11694,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12568,24 +11730,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12602,24 +11764,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.2961064426392941</v>
+        <v>5.2955129458141839</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.2961064426392941</v>
+        <v>5.2955129458141839</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12630,14 +11792,14 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
@@ -12660,14 +11822,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12684,21 +11846,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>80567.949085986387</v>
+        <v>80558.92041133529</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.6331009109436438</v>
+        <v>2.6328058381297259</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.6331009109436438</v>
+        <v>2.6328058381297259</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.5019323954790327</v>
+        <v>3.5015399589256937</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12708,14 +11870,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-4624.5481302340831</v>
+        <v>-4624.1155584653225</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.15113828802351981</v>
+        <v>-0.15112415082465483</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12747,27 +11909,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>75943.40095575231</v>
+        <v>75934.804852869973</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.1096682294821054</v>
+        <v>2.1094294342093103</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.4819626229201242</v>
+        <v>2.4816816873050711</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.4819626229201242</v>
+        <v>2.4816816873050711</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.4819626229201242</v>
+        <v>2.4816816873050711</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.350794107455513</v>
+        <v>3.3504158081010389</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12777,21 +11939,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12804,7 +11966,7 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -12838,21 +12000,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12865,31 +12027,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>37971.700477876155</v>
+        <v>37967.402426434986</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.0548341147410527</v>
+        <v>1.0547147171046551</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>1.2409813114600621</v>
+        <v>1.2408408436525356</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.2409813114600621</v>
+        <v>1.2408408436525356</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>1.2409813114600621</v>
+        <v>1.2408408436525356</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>1.6753970537277565</v>
+        <v>1.6752079040505194</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12898,7 +12060,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C670EB5-7FC3-4DA0-87C3-4218657636DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{784D28FB-4BEE-4F5F-B3A9-ECC493FFB321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -912,10 +908,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -977,6 +969,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2393,7 +2397,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2490,12 +2494,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2784,7 +2804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2798,28 +2818,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45624</v>
@@ -2835,7 +2855,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -2844,15 +2864,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>30598124345</v>
@@ -2860,10 +2880,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2884,7 +2904,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2892,10 +2912,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2909,61 +2929,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3090,7 +3110,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>1981</v>
@@ -3186,9 +3206,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>266</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150">
@@ -3206,7 +3226,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150">
@@ -3225,7 +3245,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150">
@@ -3242,10 +3262,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities Error</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150">
         <v>558565</v>
       </c>
@@ -3259,9 +3280,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>265</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150">
@@ -3314,10 +3335,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity Error</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150">
         <v>1345985</v>
       </c>
@@ -3333,9 +3355,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150">
         <v>4253</v>
       </c>
@@ -3351,7 +3373,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150">
@@ -3370,7 +3392,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250"/>
       <c r="D44" s="250"/>
@@ -3386,7 +3408,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152" t="str">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3435,13 +3457,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3462,7 +3484,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3472,7 +3494,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59">
         <f>84342+15901+696</f>
@@ -3511,7 +3533,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59">
         <v>22728</v>
@@ -3524,7 +3546,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59">
         <f>20726+8096</f>
@@ -3563,7 +3585,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3640,7 +3662,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3651,7 +3673,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3702,7 +3724,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59">
         <f>680172+86890+14650</f>
@@ -3834,7 +3856,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59">
         <v>1379544</v>
@@ -3854,7 +3876,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3862,10 +3884,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3873,7 +3895,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3881,10 +3903,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3906,7 +3928,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3945,7 +3967,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3966,7 +3988,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3984,7 +4006,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4023,7 +4045,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4041,7 +4063,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4064,28 +4086,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4127,8 +4154,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4169,7 +4196,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4181,15 +4208,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.95</v>
+        <v>6.93</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4209,7 +4236,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4222,7 +4249,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>212656.96419775</v>
+        <v>212045.00171085002</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4256,7 +4283,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4271,7 +4298,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4281,40 +4308,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4327,29 +4354,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4359,12 +4386,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4374,7 +4401,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4382,21 +4409,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>255</v>
-      </c>
-      <c r="C20" s="276">
+        <v>253</v>
+      </c>
+      <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>7.0726027344301209E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4404,69 +4431,69 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>253</v>
-      </c>
-      <c r="C21" s="278">
-        <f>Data!C55</f>
-        <v>0.68239969489618901</v>
+        <v>251</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>260</v>
-      </c>
-      <c r="C22" s="280">
-        <f>Data!C50</f>
-        <v>0.18430733569877825</v>
+        <v>258</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C48</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.26186380101467988</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="177">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.14372822493831031</v>
+        <v>175</v>
+      </c>
+      <c r="G23" s="177" t="e">
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>5.3167363129601151E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.246613831975679</v>
+        <v>24.178347276963077</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4475,14 +4502,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0.22719184534497058</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -4496,40 +4523,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="130">
+        <v>160</v>
+      </c>
+      <c r="C29" s="130" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.1094294342093103</v>
-      </c>
-      <c r="D29" s="129">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="129" t="e">
         <f>G29*(1+G20)</f>
-        <v>3.8529781793161946</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="131" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.4816816873050711</v>
-      </c>
-      <c r="G29" s="286">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="286" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.3504158081010389</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4537,21 +4564,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4561,25 +4588,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4589,7 +4616,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4599,14 +4626,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4616,7 +4643,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4631,14 +4658,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5538,27 +5565,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5590,12 +5617,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5622,16 +5649,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5649,7 +5676,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5682,7 +5709,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5693,7 +5720,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6049,7 +6076,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6100,7 +6127,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6151,7 +6178,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6202,7 +6229,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6304,7 +6331,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6457,7 +6484,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6712,7 +6739,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6763,7 +6790,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6817,15 +6844,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
-        <v>2021607</v>
+        <f>IF(C34="","",C34+C30)</f>
+        <v>0</v>
       </c>
       <c r="D27" s="65">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
-        <v>1992657</v>
+        <f>IF(D34="","",D34+D30)</f>
+        <v>1904550</v>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6865,50 +6892,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>534183</v>
+        <f>Fin_Analysis!C13</f>
+        <v>100939</v>
       </c>
       <c r="D28" s="199">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
-        <v>498104</v>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <v>68428</v>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6916,50 +6943,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
-        <v>100939</v>
+        <f>Fin_Analysis!C18</f>
+        <v>12616</v>
       </c>
       <c r="D29" s="199">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
-        <v>68428</v>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <v>12026</v>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6967,101 +6994,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
-        <v>12616</v>
+        <f>Inputs!C37</f>
+        <v>0</v>
       </c>
       <c r="D30" s="199">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
-        <v>12026</v>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <v>558565</v>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
-        <v>554255</v>
+        <f>Fin_Analysis!I15</f>
+        <v>33448</v>
       </c>
       <c r="D31" s="199">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
-        <v>558565</v>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
+        <v>35175</v>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7069,101 +7096,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
-        <v>83483</v>
+        <f>Fin_Analysis!I34</f>
+        <v>62222</v>
       </c>
       <c r="D32" s="199">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
-        <v>88107</v>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <v>67759</v>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>33448</v>
-      </c>
-      <c r="D33" s="199">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v>35175</v>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>95670</v>
+      </c>
+      <c r="D33" s="77">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v>102934</v>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7171,50 +7198,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
-        <v>62222</v>
+        <f>Inputs!C41</f>
+        <v>0</v>
       </c>
       <c r="D34" s="199">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
-        <v>67759</v>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <v>1345985</v>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7222,50 +7249,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>95670</v>
-      </c>
-      <c r="D35" s="77">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v>102934</v>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v>4253</v>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7273,50 +7300,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>1383869</v>
+        <f>Inputs!C40</f>
+        <v>0</v>
       </c>
       <c r="D36" s="199">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
-        <v>1345985</v>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
+        <v>795161</v>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7324,272 +7351,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>4325</v>
-      </c>
-      <c r="D37" s="199">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v>4253</v>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>1204108</v>
+      </c>
+      <c r="D37" s="65">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v>1109389</v>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>817499</v>
-      </c>
-      <c r="D38" s="199">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v>795161</v>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>8.1030660594121687E-2</v>
+      </c>
+      <c r="D38" s="155">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>8.8293045391051581E-2</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>1204108</v>
-      </c>
-      <c r="D39" s="65">
-        <f>IF(D38="","",D27-D38)</f>
-        <v>1197496</v>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>8.1030660594121687E-2</v>
-      </c>
-      <c r="D40" s="155">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>8.1796793754077946E-2</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.73743481563190261</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.72369162459430225</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7597,50 +7624,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.73743481563190261</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>5.3167363129601151E-3</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.72369162459430225</v>
+        <f t="shared" si="37"/>
+        <v>3.0849936891453301E-3</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7648,50 +7675,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>7.0138335341758879E-4</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>3.4559442240653928E-4</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7699,50 +7726,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>5.3167363129601151E-3</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0.22719184534497058</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>3.0849936891453301E-3</v>
+        <f t="shared" si="39"/>
+        <v>0.24436812567616301</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7750,221 +7777,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>7.0138335341758879E-4</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>2.9355219356749174E-2</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>3.4559442240653928E-4</v>
+        <f t="shared" si="40"/>
+        <v>2.8509661617982917E-2</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0.22719184534497058</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0.24436812567616301</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>2.9355219356749174E-2</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>2.8509661617982917E-2</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272">
+        <f t="shared" si="41"/>
+        <v>0.18636633325457458</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0.27090663639267087</v>
+      </c>
+      <c r="D49" s="153">
+        <f t="shared" si="42"/>
+        <v>0.19278534078615217</v>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="272">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>0.18430733569877825</v>
-      </c>
-      <c r="D50" s="272">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>0.17812598957070885</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>3.3859639234883804E-2</v>
+      </c>
+      <c r="D50" s="153">
+        <f t="shared" si="43"/>
+        <v>3.3881401009736745E-2</v>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7972,522 +7999,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0.27090663639267087</v>
-      </c>
-      <c r="D51" s="153">
-        <f t="shared" si="42"/>
-        <v>0.19278534078615217</v>
+        <v>247</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>3.3859639234883804E-2</v>
-      </c>
-      <c r="D52" s="153">
-        <f t="shared" si="43"/>
-        <v>3.3881401009736745E-2</v>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156">
+        <f t="shared" si="45"/>
+        <v>0.70448767425376069</v>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>0.11432702693285954</v>
+      </c>
+      <c r="D54" s="157">
+        <f t="shared" si="46"/>
+        <v>9.8308948776238456E-2</v>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="156">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>0.68239969489618901</v>
-      </c>
-      <c r="D55" s="156">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v>0.67333816105832567</v>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.18111724011824573</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.10820870940114637</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.11432702693285954</v>
-      </c>
-      <c r="D56" s="157">
-        <f t="shared" si="46"/>
-        <v>9.8308948776238456E-2</v>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.18111724011824573</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.10820870940114637</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
-        <v>0.96378562214143304</v>
-      </c>
-      <c r="D58" s="158">
-        <f t="shared" si="48"/>
-        <v>0.89175655474295745</v>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="B58" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="274">
+        <f t="shared" si="49"/>
+        <v>7.300365000859585E-2</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274">
+        <f t="shared" si="50"/>
+        <v>7.5419929861800482E-3</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" s="274">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>7.0726027344301209E-2</v>
-      </c>
-      <c r="D60" s="274">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>7.300365000859585E-2</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="274">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>7.9284652513197627E-3</v>
-      </c>
-      <c r="D61" s="274">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>7.5419929861800482E-3</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9047,12 +8978,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9734,27 +9661,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9868,13 +9798,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69">
+      <c r="D6" s="69" t="e">
         <f>(E49-I49-E53)</f>
-        <v>-23676.150000000023</v>
-      </c>
-      <c r="E6" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>1.017108664187145</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9894,9 +9824,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66">
+      <c r="D7" s="66" t="e">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9946,7 +9876,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9993,7 +9923,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10021,7 +9951,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10104,7 +10034,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10126,7 +10056,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10194,7 +10124,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10516,7 +10446,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10653,7 +10583,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10940,9 +10870,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="str">
+      <c r="D52" s="74" t="e">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10960,13 +10890,13 @@
         <f>MAX(D4,0)</f>
         <v>4325</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="29" t="e">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1</v>
-      </c>
-      <c r="E53" s="88">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="88" t="e">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4325</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10984,7 +10914,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11050,7 +10980,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11085,7 +11015,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11106,7 +11036,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11127,7 +11057,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11142,7 +11072,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11173,7 +11103,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11187,7 +11117,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11208,7 +11138,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11223,7 +11153,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11245,7 +11175,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11253,11 +11183,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11285,7 +11215,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11357,7 +11287,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11387,7 +11317,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11417,7 +11347,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11475,12 +11405,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11510,7 +11440,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11540,7 +11470,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11591,7 +11521,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11622,7 +11552,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11643,28 +11573,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1242872383327654E-2</v>
+        <v>4.1359319913184943E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1242872383327654E-2</v>
+        <v>4.1359319913184943E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1242872383327654E-2</v>
+        <v>4.1359319913184943E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11694,7 +11624,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -11725,27 +11655,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11764,24 +11694,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.2955129458141839</v>
+        <v>5.2981442927141407</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.2955129458141839</v>
+        <v>5.2981442927141407</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11792,14 +11722,14 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
@@ -11822,14 +11752,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11842,49 +11772,49 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>80558.92041133529</v>
+        <v>80598.950238031466</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.6328058381297259</v>
+        <v>2.6341140825908838</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.6328058381297259</v>
+        <v>2.6341140825908838</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.5015399589256937</v>
+        <v>3.5032798784406252</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="91">
+        <v>139</v>
+      </c>
+      <c r="C98" s="91" t="e">
         <f>-E53*Exchange_Rate</f>
-        <v>-4624.1155584653225</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="H98" s="123" t="e">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.15112415082465483</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11907,29 +11837,29 @@
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91">
+      <c r="C100" s="91" t="e">
         <f>C97+C98+$C$99</f>
-        <v>75934.804852869973</v>
-      </c>
-      <c r="D100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D100" s="109" t="e">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.1094294342093103</v>
-      </c>
-      <c r="E100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E100" s="109" t="e">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.4816816873050711</v>
-      </c>
-      <c r="F100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="109" t="e">
         <f>(E100+H100)/2</f>
-        <v>2.4816816873050711</v>
-      </c>
-      <c r="H100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="109" t="e">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.4816816873050711</v>
-      </c>
-      <c r="I100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="109" t="e">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.3504158081010389</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11939,21 +11869,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11966,7 +11896,7 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -12000,21 +11930,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12027,31 +11957,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="91" t="e">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>37967.402426434986</v>
-      </c>
-      <c r="D106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D106" s="109" t="e">
         <f>(D100+D103)/2</f>
-        <v>1.0547147171046551</v>
-      </c>
-      <c r="E106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E106" s="123" t="e">
         <f>(E100+E103)/2</f>
-        <v>1.2408408436525356</v>
-      </c>
-      <c r="F106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="109" t="e">
         <f>(F100+F103)/2</f>
-        <v>1.2408408436525356</v>
-      </c>
-      <c r="H106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="123" t="e">
         <f>(H100+H103)/2</f>
-        <v>1.2408408436525356</v>
-      </c>
-      <c r="I106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106" s="123" t="e">
         <f>(I100+I103)/2</f>
-        <v>1.6752079040505194</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12060,7 +11990,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{784D28FB-4BEE-4F5F-B3A9-ECC493FFB321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{422571CF-1076-4C7F-B6FB-77A3BEFA2AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -948,10 +944,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -981,6 +973,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1908,7 +1916,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2144,12 +2151,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2348,6 +2351,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2587,8 +2595,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2804,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2822,162 +2830,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>267</v>
+      <c r="C4" s="187" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>268</v>
+      <c r="C5" s="190" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45624</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="267"/>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>269</v>
+      <c r="C9" s="191" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>30598124345</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>270</v>
+      <c r="C11" s="191" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>244</v>
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>229</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>229</v>
+      <c r="C19" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>229</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>229</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>242</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>241</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3034,435 +3042,439 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>372597</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>354944</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>0</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>0</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <f>11294+C29+60026+62939+36403+102123</f>
         <v>274766</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <f>10947+D29+56425+60726+34720+92957</f>
         <v>256870</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>1981</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>1095</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>196</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>92</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150">
+      <c r="C32" s="149">
         <v>84847</v>
       </c>
-      <c r="D32" s="150">
+      <c r="D32" s="149">
         <v>86829</v>
       </c>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150">
+      <c r="C33" s="149">
         <f>C30</f>
         <v>196</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="149">
         <f>D30</f>
         <v>92</v>
       </c>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150">
+        <v>264</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149">
         <v>498104</v>
       </c>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150">
+      <c r="C35" s="214"/>
+      <c r="D35" s="149">
         <f>54881+12342+1205</f>
         <v>68428</v>
       </c>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150">
+      <c r="C36" s="214"/>
+      <c r="D36" s="149">
         <v>12026</v>
       </c>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities Error</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150">
+      <c r="B37" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="149">
+        <v>637738</v>
+      </c>
+      <c r="D37" s="149">
         <v>558565</v>
       </c>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150">
+        <v>263</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149">
         <v>88107</v>
       </c>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150">
+      <c r="C39" s="214"/>
+      <c r="D39" s="149">
         <v>35175</v>
       </c>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150">
+      <c r="C40" s="214"/>
+      <c r="D40" s="149">
         <v>67759</v>
       </c>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity Error</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150">
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>1383869</v>
+      </c>
+      <c r="D41" s="149">
         <v>1345985</v>
       </c>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150">
+      <c r="C42" s="149">
+        <v>4325</v>
+      </c>
+      <c r="D42" s="149">
         <v>4253</v>
       </c>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150">
+      <c r="C43" s="214"/>
+      <c r="D43" s="149">
         <f>181715+185621+5628+55387+156018+32020+37213+141559</f>
         <v>795161</v>
       </c>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250"/>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="C44" s="247"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152" t="str">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151" t="str">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="D45" s="152" t="str">
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3546,7 +3558,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59">
         <f>20726+8096</f>
@@ -3579,7 +3591,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3591,7 +3603,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3612,8 +3624,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3673,7 +3685,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3691,7 +3703,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3703,7 +3715,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3718,7 +3730,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3774,17 +3786,17 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247">
+      <c r="C72" s="244">
         <f>35301+44439</f>
         <v>79740</v>
       </c>
-      <c r="D72" s="248">
+      <c r="D72" s="245">
         <v>0</v>
       </c>
-      <c r="E72" s="249"/>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3810,7 +3822,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3844,21 +3856,21 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83">
+        <v>267</v>
+      </c>
+      <c r="C82" s="214">
         <v>83483</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59">
+        <v>268</v>
+      </c>
+      <c r="C83" s="214">
         <v>1379544</v>
       </c>
     </row>
@@ -3876,20 +3888,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3919,10 +3931,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3934,12 +3946,12 @@
         <f>C25</f>
         <v>372597</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>372597</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>372597</v>
       </c>
@@ -3952,75 +3964,75 @@
         <f>C26</f>
         <v>0</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>0</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>274766</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.73743481563190261</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>274766</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>274766</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>1981</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>5.3167363129601151E-3</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>1981</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>84651</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0.22719184534497058</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>84651</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>84651</v>
       </c>
@@ -4033,12 +4045,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4051,12 +4063,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>261.33333333333331</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>7.0138335341758879E-4</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>261.33333333333331</v>
       </c>
@@ -4065,16 +4077,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0</v>
       </c>
@@ -4155,7 +4167,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4207,11 +4219,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>6.93</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>271</v>
+      <c r="G3" s="131">
+        <v>7.02</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4249,7 +4261,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>212045.00171085002</v>
+        <v>214798.83290189999</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4259,11 +4271,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4285,11 +4297,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0010</v>
       </c>
@@ -4297,8 +4309,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4307,10 +4319,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4318,7 +4330,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4326,13 +4338,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4341,12 +4353,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4356,7 +4368,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4367,7 +4379,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4375,13 +4387,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4391,127 +4403,127 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>7.0726027344301209E-2</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>0.68239969489618901</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="142" t="s">
+        <v>0.18430733569877825</v>
+      </c>
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.26186380101467988</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>0.14530173891039661</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>5.3167363129601151E-3</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.178347276963077</v>
+        <v>24.512061941814714</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0.22719184534497058</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
         <v>0</v>
       </c>
@@ -4530,10 +4542,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4541,22 +4553,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130" t="e">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="129" t="e">
+        <v>2.1028104710562707</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>#DIV/0!</v>
+        <v>3.8410185663791987</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131" t="e">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="286" t="e">
+        <v>2.4738946718309069</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>#DIV/0!</v>
+        <v>3.3400161446775645</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4564,23 +4576,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4588,9 +4600,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="str">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4598,17 +4610,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4616,26 +4628,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4643,9 +4655,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4658,16 +4670,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5619,10 +5631,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5648,16 +5660,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5671,11 +5683,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5700,7 +5712,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5708,7 +5720,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5772,47 +5784,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>372597</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>354944</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5874,47 +5886,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5925,47 +5937,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>372597</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>354944</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5976,47 +5988,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>274766</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>256870</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6027,47 +6039,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6076,49 +6088,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>261.33333333333331</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>122.66666666666667</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6126,50 +6138,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.26186380101467988</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.27596278098329124</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6177,50 +6189,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>97569.666666666672</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>97951.333333333328</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6228,50 +6240,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-3.8964928161603074E-3</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6282,47 +6294,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6331,49 +6343,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>1981</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>1095</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6384,47 +6396,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152">
+      <c r="C18" s="151">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>0.22771788286003378</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="151">
         <f t="shared" si="6"/>
         <v>0.2446273214929679</v>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6435,47 +6447,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199">
+      <c r="C19" s="198">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>84847</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>86829</v>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6484,49 +6496,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>5.2603751506319157E-4</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>2.5919581680490446E-4</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6537,47 +6549,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199">
+      <c r="C21" s="198">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>196</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>92</v>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6588,47 +6600,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>10937.666666666672</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>10119.333333333328</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6639,47 +6651,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>2.201641451756188E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>2.1382246213487187E-2</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6690,7 +6702,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>8203.2500000000036</v>
       </c>
@@ -6738,50 +6750,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>8.0868304894921611E-2</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6845,7 +6857,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>2021607</v>
       </c>
       <c r="D27" s="65">
         <f>IF(D34="","",D34+D30)</f>
@@ -6898,43 +6910,43 @@
         <f>Fin_Analysis!C13</f>
         <v>100939</v>
       </c>
-      <c r="D28" s="199">
+      <c r="D28" s="198">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>68428</v>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6949,43 +6961,43 @@
         <f>Fin_Analysis!C18</f>
         <v>12616</v>
       </c>
-      <c r="D29" s="199">
+      <c r="D29" s="198">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>12026</v>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6994,49 +7006,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="199">
+        <v>637738</v>
+      </c>
+      <c r="D30" s="198">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>558565</v>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7051,43 +7063,43 @@
         <f>Fin_Analysis!I15</f>
         <v>33448</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>35175</v>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7102,43 +7114,43 @@
         <f>Fin_Analysis!I34</f>
         <v>62222</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>67759</v>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7202,45 +7214,45 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="199">
+        <v>1383869</v>
+      </c>
+      <c r="D34" s="198">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>1345985</v>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7253,45 +7265,45 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="199">
+        <v>4325</v>
+      </c>
+      <c r="D35" s="198">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>4253</v>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7306,43 +7318,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>795161</v>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7404,47 +7416,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="154">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>8.1030660594121687E-2</v>
       </c>
-      <c r="D38" s="155">
+      <c r="D38" s="154">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>8.8293045391051581E-2</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7453,7 +7465,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7473,47 +7485,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7522,49 +7534,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.73743481563190261</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.72369162459430225</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7575,47 +7587,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7626,47 +7638,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>5.3167363129601151E-3</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>3.0849936891453301E-3</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7677,47 +7689,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>7.0138335341758879E-4</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>3.4559442240653928E-4</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7726,49 +7738,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0.22719184534497058</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0.24436812567616301</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7779,47 +7791,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>2.9355219356749174E-2</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>2.8509661617982917E-2</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7828,9 +7840,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>248</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>266</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7845,50 +7859,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="272">
+        <v>0.18430733569877825</v>
+      </c>
+      <c r="D48" s="269">
         <f t="shared" si="41"/>
         <v>0.18636633325457458</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7897,49 +7911,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" s="153">
+        <v>255</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.27090663639267087</v>
       </c>
-      <c r="D49" s="153">
+      <c r="D49" s="152">
         <f t="shared" si="42"/>
         <v>0.19278534078615217</v>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7948,49 +7962,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C50" s="153">
+        <v>256</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>3.3859639234883804E-2</v>
       </c>
-      <c r="D50" s="153">
+      <c r="D50" s="152">
         <f t="shared" si="43"/>
         <v>3.3881401009736745E-2</v>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7999,49 +8013,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>246</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8050,7 +8064,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8067,49 +8081,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>250</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="156">
+        <v>0.68239969489618901</v>
+      </c>
+      <c r="D53" s="155">
         <f t="shared" si="45"/>
         <v>0.70448767425376069</v>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8119,47 +8133,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157">
+      <c r="C54" s="156">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>0.11432702693285954</v>
       </c>
-      <c r="D54" s="157">
+      <c r="D54" s="156">
         <f t="shared" si="46"/>
         <v>9.8308948776238456E-2</v>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8169,47 +8183,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.18111724011824573</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>0.10820870940114637</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8219,47 +8233,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8267,149 +8281,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>251</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="274">
+        <v>7.0726027344301209E-2</v>
+      </c>
+      <c r="D58" s="271">
         <f t="shared" si="49"/>
         <v>7.300365000859585E-2</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="274">
+        <v>7.9284652513197627E-3</v>
+      </c>
+      <c r="D59" s="271">
         <f t="shared" si="50"/>
         <v>7.5419929861800482E-3</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9705,8 +9719,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9742,8 +9756,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>1383869</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9755,8 +9769,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>1379544</v>
       </c>
       <c r="K3" s="24"/>
@@ -9766,8 +9780,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>4325</v>
       </c>
       <c r="E4" s="37"/>
@@ -9798,13 +9812,13 @@
         <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69" t="e">
+      <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>-23676.150000000023</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>1.017108664187145</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9824,9 +9838,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66" t="e">
+      <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9854,11 +9868,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9901,7 +9915,7 @@
         <f>Inputs!C48</f>
         <v>172891</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9929,7 +9943,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9957,7 +9971,7 @@
         <f>Inputs!C50</f>
         <v>100939</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9985,7 +9999,7 @@
         <f>Inputs!C51</f>
         <v>176336</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9998,7 +10012,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10013,7 +10027,7 @@
         <f>Inputs!C52</f>
         <v>19344</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10040,7 +10054,7 @@
         <f>Inputs!C53</f>
         <v>22728</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10062,7 +10076,7 @@
         <f>Inputs!C54</f>
         <v>28822</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10084,7 +10098,7 @@
         <f>Inputs!C55</f>
         <v>12616</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10105,7 +10119,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10113,7 +10127,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10130,7 +10144,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10138,7 +10152,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10157,7 +10171,7 @@
         <f>Inputs!C58</f>
         <v>507</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10178,7 +10192,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10343,7 +10357,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>554255</v>
       </c>
@@ -10372,7 +10386,7 @@
         <f>Inputs!C60</f>
         <v>75495</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10398,7 +10412,7 @@
         <f>Inputs!C61</f>
         <v>182795</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10425,7 +10439,7 @@
         <f>Inputs!C62</f>
         <v>5625</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10452,7 +10466,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10468,7 +10482,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10482,7 +10496,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10509,7 +10523,7 @@
         <f>Inputs!C65</f>
         <v>185013</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10517,7 +10531,7 @@
         <f t="shared" si="1"/>
         <v>18501.3</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10535,7 +10549,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10543,7 +10557,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10562,7 +10576,7 @@
         <f>Inputs!C67</f>
         <v>94862</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10570,7 +10584,7 @@
         <f t="shared" si="1"/>
         <v>9486.2000000000007</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10589,7 +10603,7 @@
         <f>Inputs!C68</f>
         <v>781712</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10610,7 +10624,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10631,7 +10645,7 @@
         <f>Inputs!C70</f>
         <v>34291</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10652,7 +10666,7 @@
         <f>Inputs!C71</f>
         <v>47891</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10673,7 +10687,7 @@
         <f>Inputs!C72</f>
         <v>79740</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10819,8 +10833,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>83483</v>
       </c>
       <c r="J48" s="8"/>
@@ -10846,8 +10860,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>637738</v>
       </c>
       <c r="J49" s="87"/>
@@ -10870,9 +10884,9 @@
         <v>84</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="e">
+      <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>#DIV/0!</v>
+        <v>BV of the MI</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10890,13 +10904,13 @@
         <f>MAX(D4,0)</f>
         <v>4325</v>
       </c>
-      <c r="D53" s="29" t="e">
+      <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="88" t="e">
+        <v>1</v>
+      </c>
+      <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>#DIV/0!</v>
+        <v>4325</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10917,7 +10931,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -11017,7 +11031,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>248386</v>
       </c>
@@ -11025,7 +11039,7 @@
         <f t="shared" si="2"/>
         <v>0.62645197394378105</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>155601.9</v>
       </c>
@@ -11056,11 +11070,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>95670</v>
@@ -11137,12 +11151,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>542068</v>
       </c>
@@ -11221,17 +11235,17 @@
         <f>Data!C6</f>
         <v>372597</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>372597</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>372597</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11242,23 +11256,23 @@
         <f>Data!C8</f>
         <v>0</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>0</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>0</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0</v>
       </c>
@@ -11268,48 +11282,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>372597</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>372597</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>372597</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>274766</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.73743481563190261</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>274766</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.73743481563190261</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>274766</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.73743481563190261</v>
       </c>
@@ -11323,54 +11337,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>261.33333333333331</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>7.0138335341758879E-4</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>261.33333333333331</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>7.0138335341758879E-4</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>261.33333333333331</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>7.0138335341758879E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>97569.666666666672</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.26186380101467988</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>97569.666666666672</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.26186380101467988</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>97569.666666666672</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.26186380101467988</v>
       </c>
@@ -11384,55 +11398,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>1981</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>5.3167363129601151E-3</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>1981</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>5.3167363129601151E-3</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>1981</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>5.3167363129601151E-3</v>
       </c>
@@ -11440,29 +11454,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>84651</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0.22719184534497058</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>84651</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0.22719184534497058</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>84651</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0.22719184534497058</v>
       </c>
@@ -11472,27 +11486,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>10937.666666666672</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>2.9355219356749174E-2</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>10937.666666666672</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>2.9355219356749174E-2</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>10937.666666666672</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>2.9355219356749174E-2</v>
       </c>
@@ -11502,49 +11516,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>8203.2500000000036</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>2.201641451756188E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>8203.2500000000036</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>2.201641451756188E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>8203.2500000000036</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>2.201641451756188E-2</v>
       </c>
@@ -11554,69 +11568,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.26809649857967477</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.26809649857967477</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.26809649857967477</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1359319913184943E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>4.0796241555432627E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1359319913184943E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>4.0796241555432627E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.1359319913184943E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>4.0796241555432627E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0</v>
       </c>
@@ -11624,23 +11638,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="I89" s="209"/>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11662,7 +11676,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11685,27 +11699,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.2981442927141407</v>
+        <v>5.2795871168324124</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.2981442927141407</v>
+        <v>5.2795871168324124</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11713,25 +11727,25 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
@@ -11747,25 +11761,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11776,21 +11790,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>80598.950238031466</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>80316.645941882583</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.6341140825908838</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>2.6248878864696499</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.6341140825908838</v>
-      </c>
-      <c r="I97" s="123">
+        <v>2.6248878864696499</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.5032798784406252</v>
+        <v>3.4910093593163074</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11798,18 +11812,18 @@
       <c r="B98" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91" t="e">
+      <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123" t="e">
+        <v>-4620.1091567675267</v>
+      </c>
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I98" s="215"/>
+        <v>-0.1509932146387428</v>
+      </c>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11820,46 +11834,46 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C100" s="91" t="e">
+      <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D100" s="109" t="e">
+        <v>75696.536785115051</v>
+      </c>
+      <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E100" s="109" t="e">
+        <v>2.1028104710562707</v>
+      </c>
+      <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="109" t="e">
+        <v>2.4738946718309069</v>
+      </c>
+      <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="109" t="e">
+        <v>2.4738946718309069</v>
+      </c>
+      <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100" s="109" t="e">
+        <v>2.4738946718309065</v>
+      </c>
+      <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>#DIV/0!</v>
+        <v>3.3400161446775645</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11871,25 +11885,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11906,7 +11920,7 @@
         <f>MIN(F103*(1-C94),E103)</f>
         <v>0</v>
       </c>
-      <c r="E103" s="123">
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
         <v>0</v>
       </c>
@@ -11914,7 +11928,7 @@
         <f>(E103+H103)/2</f>
         <v>0</v>
       </c>
-      <c r="H103" s="123">
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
         <v>0</v>
       </c>
@@ -11932,25 +11946,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11959,29 +11973,29 @@
       <c r="B106" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="91" t="e">
+      <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D106" s="109" t="e">
+        <v>37848.268392557533</v>
+      </c>
+      <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E106" s="123" t="e">
+        <v>1.0514052355281354</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="109" t="e">
+        <v>1.2369473359154535</v>
+      </c>
+      <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="123" t="e">
+        <v>1.2369473359154535</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I106" s="123" t="e">
+        <v>1.2369473359154532</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>#DIV/0!</v>
+        <v>1.6700080723387822</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11992,14 +12006,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{422571CF-1076-4C7F-B6FB-77A3BEFA2AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC45027F-36DD-408C-AD53-40BB84AEA6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4220,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>7.02</v>
+        <v>7.01</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>273</v>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>214798.83290189999</v>
+        <v>214492.85165844997</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4310,7 +4310,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.14530173891039661</v>
+        <v>0.14509928483025764</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4493,7 +4493,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.512061941814714</v>
+        <v>24.477908414197259</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4555,20 +4555,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.1028104710562707</v>
+        <v>2.1033550115911868</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>3.8410185663791987</v>
+        <v>3.8419966051676204</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.4738946718309069</v>
+        <v>2.4745353077543375</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.3400161446775645</v>
+        <v>3.3408666131892355</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11591,17 +11591,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0796241555432627E-2</v>
+        <v>4.0853163721292343E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0796241555432627E-2</v>
+        <v>4.0853163721292343E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0796241555432627E-2</v>
+        <v>4.0853163721292343E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11712,14 +11712,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.2795871168324124</v>
+        <v>5.2808661861827257</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.2795871168324124</v>
+        <v>5.2808661861827257</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11790,21 +11790,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>80316.645941882583</v>
+        <v>80336.104008937997</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.6248878864696499</v>
+        <v>2.6255238099934588</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.6248878864696499</v>
+        <v>2.6255238099934588</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.4910093593163074</v>
+        <v>3.4918551154283568</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11814,14 +11814,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>-4620.1091567675267</v>
+        <v>-4619.9649661779404</v>
       </c>
       <c r="D98" s="210"/>
       <c r="E98" s="210"/>
       <c r="F98" s="210"/>
       <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.1509932146387428</v>
+        <v>-0.15098850223912116</v>
       </c>
       <c r="I98" s="212"/>
       <c r="K98" s="24"/>
@@ -11853,27 +11853,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>75696.536785115051</v>
+        <v>75716.139042760056</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.1028104710562707</v>
+        <v>2.1033550115911868</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.4738946718309069</v>
+        <v>2.4745353077543375</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>2.4738946718309069</v>
+        <v>2.4745353077543375</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.4738946718309065</v>
+        <v>2.4745353077543375</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.3400161446775645</v>
+        <v>3.3408666131892355</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11975,27 +11975,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>37848.268392557533</v>
+        <v>37858.069521380028</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>1.0514052355281354</v>
+        <v>1.0516775057955934</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>1.2369473359154535</v>
+        <v>1.2372676538771687</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>1.2369473359154535</v>
+        <v>1.2372676538771687</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>1.2369473359154532</v>
+        <v>1.2372676538771687</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>1.6700080723387822</v>
+        <v>1.6704333065946178</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC45027F-36DD-408C-AD53-40BB84AEA6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA920ECA-235F-4D55-BBF6-69633E1912CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,10 +961,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -989,6 +978,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1681,7 +1678,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1829,7 +1826,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2019,9 +2015,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2357,6 +2350,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2826,172 +2820,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45624</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="189" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="190" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>30598124345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>30598124345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
+      <c r="C14" s="214">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>243</v>
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
-        <v>228</v>
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>228</v>
+      <c r="C19" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>228</v>
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>228</v>
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>227</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>241</v>
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
+        <v>239</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3039,451 +3033,452 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>372597</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>354944</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="149">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
         <v>0</v>
       </c>
-      <c r="D26" s="149">
+      <c r="D26" s="148">
         <v>0</v>
       </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="149">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
         <f>11294+C29+60026+62939+36403+102123</f>
         <v>274766</v>
       </c>
-      <c r="D27" s="149">
+      <c r="D27" s="148">
         <f>10947+D29+56425+60726+34720+92957</f>
         <v>256870</v>
       </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
+        <v>1981</v>
+      </c>
+      <c r="D29" s="148">
+        <v>1095</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>196</v>
+      </c>
+      <c r="D30" s="148">
+        <v>92</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="148">
+        <v>84847</v>
+      </c>
+      <c r="D32" s="148">
+        <v>86829</v>
+      </c>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
-        <v>1981</v>
-      </c>
-      <c r="D29" s="149">
-        <v>1095</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>196</v>
-      </c>
-      <c r="D30" s="149">
-        <v>92</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149">
-        <v>84847</v>
-      </c>
-      <c r="D32" s="149">
-        <v>86829</v>
-      </c>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149">
+      <c r="C33" s="148">
         <f>C30</f>
         <v>196</v>
       </c>
-      <c r="D33" s="149">
+      <c r="D33" s="148">
         <f>D30</f>
         <v>92</v>
       </c>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149">
+      <c r="B34" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148">
         <v>498104</v>
       </c>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149">
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148">
         <f>54881+12342+1205</f>
         <v>68428</v>
       </c>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149">
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148">
         <v>12026</v>
       </c>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="149">
+      <c r="B37" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="148">
         <v>637738</v>
       </c>
-      <c r="D37" s="149">
+      <c r="D37" s="148">
         <v>558565</v>
       </c>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149">
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148">
         <v>88107</v>
       </c>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149">
+      <c r="C39" s="212"/>
+      <c r="D39" s="148">
         <v>35175</v>
       </c>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149">
+      <c r="C40" s="212"/>
+      <c r="D40" s="148">
         <v>67759</v>
       </c>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148">
+        <v>1383869</v>
+      </c>
+      <c r="D41" s="148">
+        <v>1345985</v>
+      </c>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>1383869</v>
-      </c>
-      <c r="D41" s="149">
-        <v>1345985</v>
-      </c>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149">
+      <c r="C42" s="148">
         <v>4325</v>
       </c>
-      <c r="D42" s="149">
+      <c r="D42" s="148">
         <v>4253</v>
       </c>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149">
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148">
         <f>181715+185621+5628+55387+156018+32020+37213+141559</f>
         <v>795161</v>
       </c>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247"/>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+        <v>192</v>
+      </c>
+      <c r="C44" s="245"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151" t="str">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150" t="str">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="D45" s="151" t="str">
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59">
         <f>40818+132073</f>
@@ -3492,21 +3487,21 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59">
         <f>84342+15901+696</f>
@@ -3516,11 +3511,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59">
         <v>176336</v>
@@ -3528,11 +3523,11 @@
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59">
         <f>19344</f>
@@ -3541,11 +3536,11 @@
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59">
         <v>22728</v>
@@ -3554,11 +3549,11 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59">
         <f>20726+8096</f>
@@ -3567,11 +3562,11 @@
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59">
         <v>12616</v>
@@ -3580,36 +3575,36 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59">
         <v>507</v>
@@ -3618,22 +3613,22 @@
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59">
         <f>75495</f>
@@ -3643,11 +3638,11 @@
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59">
         <f>6083+176712</f>
@@ -3657,11 +3652,11 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59">
         <v>5625</v>
@@ -3670,32 +3665,32 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59">
         <v>185013</v>
@@ -3703,25 +3698,25 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59">
         <v>94862</v>
@@ -3730,13 +3725,13 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59">
         <f>680172+86890+14650</f>
@@ -3746,22 +3741,22 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59">
         <f>2319+31972</f>
@@ -3770,11 +3765,11 @@
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59">
         <v>47891</v>
@@ -3783,30 +3778,30 @@
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244">
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242">
         <f>35301+44439</f>
         <v>79740</v>
       </c>
-      <c r="D72" s="245">
+      <c r="D72" s="243">
         <v>0</v>
       </c>
-      <c r="E72" s="246"/>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59">
         <v>33448</v>
@@ -3814,33 +3809,33 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>554255</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59">
         <v>62222</v>
@@ -3848,77 +3843,77 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="214">
+        <v>264</v>
+      </c>
+      <c r="C82" s="212">
         <v>83483</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="214">
+        <v>265</v>
+      </c>
+      <c r="C83" s="212">
         <v>1379544</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3927,166 +3922,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>372597</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>372597</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>372597</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>0</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>0</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>274766</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.73743481563190261</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>274766</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>274766</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>1981</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>5.3167363129601151E-3</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>1981</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>84651</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0.22719184534497058</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>84651</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>84651</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>261.33333333333331</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>7.0138335341758879E-4</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>261.33333333333331</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0</v>
       </c>
@@ -4099,32 +4094,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4183,13 +4178,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4200,82 +4195,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0762.HK : 中国联通</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0762.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>7.01</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>273</v>
+      <c r="G3" s="130">
+        <v>7.02</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>中国联通</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>30598124345</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>214492.85165844997</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>214798.83290189999</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4286,31 +4281,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0010</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4319,211 +4314,211 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="273">
+      <c r="B20" s="270" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
         <v>7.0726027344301209E-2</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="275">
+      <c r="B21" s="272" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
         <v>0.68239969489618901</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="277">
+      <c r="B22" s="274" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
         <v>0.18430733569877825</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.26186380101467988</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.14509928483025764</v>
+        <v>0.14533802074178037</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>5.3167363129601151E-3</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.477908414197259</v>
+        <v>24.518182601518514</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0.22719184534497058</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
         <v>0</v>
       </c>
@@ -4531,68 +4526,68 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.1033550115911868</v>
-      </c>
-      <c r="D29" s="128">
+        <v>2.1021763997902156</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>3.8419966051676204</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>3.8398633377947746</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.4745353077543375</v>
-      </c>
-      <c r="G29" s="286">
+        <v>2.4731487056355479</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.3408666131892355</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>3.3390115980824131</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4600,9 +4595,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="str">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly agree</v>
@@ -4610,17 +4605,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4628,26 +4623,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4655,9 +4650,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4670,16 +4665,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5631,10 +5626,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5660,59 +5655,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>97569.666666666672</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5720,19 +5715,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5781,928 +5776,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>372597</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>354944</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>4.9734606022358463E-2</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>372597</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>354944</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>274766</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>256870</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>261.33333333333331</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>122.66666666666667</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.26186380101467988</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.27596278098329124</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>97569.666666666672</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>97951.333333333328</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-3.8964928161603074E-3</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>1981</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>1095</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>0.22771788286003378</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <f t="shared" si="6"/>
         <v>0.2446273214929679</v>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>84847</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="196">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>86829</v>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>5.2603751506319157E-4</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>2.5919581680490446E-4</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>196</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="196">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>92</v>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>10937.666666666672</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>10119.333333333328</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>2.201641451756188E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>2.1382246213487187E-2</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>8203.2500000000036</v>
       </c>
@@ -6746,63 +6741,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>8.0868304894921611E-2</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6848,11 +6843,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6899,266 +6894,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>100939</v>
       </c>
-      <c r="D28" s="198">
+      <c r="D28" s="196">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v>68428</v>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>12616</v>
       </c>
-      <c r="D29" s="198">
+      <c r="D29" s="196">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v>12026</v>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>262</v>
+      <c r="B30" s="93" t="s">
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>637738</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="196">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v>558565</v>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>33448</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="196">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v>35175</v>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>62222</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="196">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v>67759</v>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7205,165 +7200,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>1383869</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="196">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v>1345985</v>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>4325</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="196">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v>4253</v>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="196">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v>795161</v>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7409,63 +7404,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>8.1030660594121687E-2</v>
       </c>
-      <c r="D38" s="154">
+      <c r="D38" s="153">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>8.8293045391051581E-2</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7478,372 +7473,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.73743481563190261</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.72369162459430225</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>5.3167363129601151E-3</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>3.0849936891453301E-3</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>7.0138335341758879E-4</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>3.4559442240653928E-4</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0.22719184534497058</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0.24436812567616301</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>2.9355219356749174E-2</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>2.8509661617982917E-2</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>266</v>
+      <c r="B47" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>263</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7855,216 +7850,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="269">
+      <c r="B48" s="266" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>0.18430733569877825</v>
       </c>
-      <c r="D48" s="269">
+      <c r="D48" s="267">
         <f t="shared" si="41"/>
         <v>0.18636633325457458</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.27090663639267087</v>
       </c>
-      <c r="D49" s="152">
+      <c r="D49" s="151">
         <f t="shared" si="42"/>
         <v>0.19278534078615217</v>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>3.3859639234883804E-2</v>
       </c>
-      <c r="D50" s="152">
+      <c r="D50" s="151">
         <f t="shared" si="43"/>
         <v>3.3881401009736745E-2</v>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>249</v>
+      <c r="B52" s="101" t="s">
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8080,350 +8075,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="155">
+      <c r="B53" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>0.68239969489618901</v>
       </c>
-      <c r="D53" s="155">
+      <c r="D53" s="154">
         <f t="shared" si="45"/>
         <v>0.70448767425376069</v>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>0.11432702693285954</v>
       </c>
-      <c r="D54" s="156">
+      <c r="D54" s="155">
         <f t="shared" si="46"/>
         <v>9.8308948776238456E-2</v>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.18111724011824573</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>0.10820870940114637</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v>4.6261321572024887E-2</v>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="271">
+      <c r="B58" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>7.0726027344301209E-2</v>
       </c>
-      <c r="D58" s="271">
+      <c r="D58" s="269">
         <f t="shared" si="49"/>
         <v>7.300365000859585E-2</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="271">
+      <c r="B59" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>7.9284652513197627E-3</v>
       </c>
-      <c r="D59" s="271">
+      <c r="D59" s="269">
         <f t="shared" si="50"/>
         <v>7.5419929861800482E-3</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9702,7 +9697,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9720,7 +9715,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9738,25 +9733,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>1383869</v>
       </c>
@@ -9764,12 +9759,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>1379544</v>
       </c>
@@ -9777,28 +9772,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>4325</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -9811,7 +9806,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>-23676.150000000023</v>
@@ -9820,16 +9815,16 @@
         <f>1-D6/D3</f>
         <v>1.017108664187145</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
         <v>0.9401087946883655</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9837,7 +9832,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9847,287 +9842,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
         <v>0.81220016057590816</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>172891</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>155601.9</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>33448</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>100939</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>60563.399999999994</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>176336</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>105801.59999999999</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>19344</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>9672</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>33448</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>22728</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>13636.8</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>28822</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>2882.2000000000003</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>12616</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>6308</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10138,21 +10133,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10165,45 +10160,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>507</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>456.3</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10211,17 +10206,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10231,19 +10226,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.71521816396618132</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>321966.89999999997</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
         <v>0.90714782000111571</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10253,17 +10248,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0.36943888058227775</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>26191</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
         <v>7.3793637028058551E-2</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10272,7 +10267,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10282,17 +10277,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0.5</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>6308</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
         <v>1.7772909105150371E-2</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10305,7 +10300,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10315,17 +10310,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0.9</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>456.3</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
         <v>1.2856338656753511E-3</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10352,12 +10347,12 @@
         <f>SUM(E24:E27)</f>
         <v>354922.19999999995</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>554255</v>
       </c>
@@ -10367,171 +10362,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>75495</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="87">
         <v>0</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>182795</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>109677</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>62222</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>5625</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>2812.5</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>62222</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>185013</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>18501.3</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10539,25 +10534,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10565,26 +10560,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>94862</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>9486.2000000000007</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10592,113 +10587,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>781712</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>78171.199999999997</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>34291</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>1714.5500000000002</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>47891</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>43101.9</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>79740</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10706,17 +10701,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10726,16 +10721,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0.42462735684695496</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>109677</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10745,16 +10740,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0.11180247379850816</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>21313.8</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10764,14 +10759,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>87657.4</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -10784,7 +10779,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10794,14 +10789,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0.27677801657588225</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>44816.450000000004</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10814,13 +10809,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>1487424</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="81">
         <f>E48/C48</f>
         <v>0.17712814234542404</v>
       </c>
@@ -10828,12 +10823,12 @@
         <f>SUM(E30:E42)</f>
         <v>263464.65000000002</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>83483</v>
       </c>
@@ -10844,63 +10839,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>2021607</v>
       </c>
       <c r="D49" s="56">
         <f>E49/C49</f>
         <v>0.30588875582642916</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>618386.85</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>637738</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>4325</v>
       </c>
@@ -10908,45 +10903,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>1</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>4325</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>95670</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10954,61 +10949,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11022,35 +11017,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>246464.39999999997</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>248386</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0.62645197394378105</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>155601.9</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11064,29 +11059,29 @@
         <f>E61+E62</f>
         <v>402066.29999999993</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>95670</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11100,9 +11095,9 @@
         <f>E63-E64</f>
         <v>306396.29999999993</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11110,28 +11105,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11145,29 +11140,29 @@
         <f>E49-E63</f>
         <v>216320.55000000005</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>542068</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11181,29 +11176,29 @@
         <f>E68-E69</f>
         <v>-325747.44999999995</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11213,66 +11208,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>372597</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>372597</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>372597</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>0</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>0</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>0</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0</v>
       </c>
@@ -11280,50 +11275,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>372597</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>372597</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>372597</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>274766</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.73743481563190261</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>274766</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.73743481563190261</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>274766</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.73743481563190261</v>
       </c>
@@ -11331,60 +11326,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>261.33333333333331</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>7.0138335341758879E-4</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>261.33333333333331</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>7.0138335341758879E-4</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>261.33333333333331</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>7.0138335341758879E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>97569.666666666672</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.26186380101467988</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>97569.666666666672</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.26186380101467988</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>97569.666666666672</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.26186380101467988</v>
       </c>
@@ -11392,61 +11387,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>1981</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>5.3167363129601151E-3</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>1981</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>5.3167363129601151E-3</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>1981</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>5.3167363129601151E-3</v>
       </c>
@@ -11454,59 +11449,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>84651</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0.22719184534497058</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>84651</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0.22719184534497058</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>84651</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0.22719184534497058</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>10937.666666666672</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>2.9355219356749174E-2</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>10937.666666666672</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>2.9355219356749174E-2</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>10937.666666666672</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>2.9355219356749174E-2</v>
       </c>
@@ -11514,184 +11509,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>8203.2500000000036</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>2.201641451756188E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>8203.2500000000036</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>2.201641451756188E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>8203.2500000000036</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>2.201641451756188E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.26809649857967477</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.26809649857967477</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.26809649857967477</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0853163721292343E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>4.0786057280528851E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0853163721292343E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>4.0786057280528851E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0853163721292343E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>4.0786057280528851E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="I89" s="206"/>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11699,53 +11694,53 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.2808661861827257</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>5.2780108971101116</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.2808661861827257</v>
+        <v>5.2780108971101116</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
@@ -11757,123 +11752,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>80336.104008937997</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>80292.667422623184</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.6255238099934588</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>2.6241042266940036</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.6255238099934588</v>
-      </c>
-      <c r="I97" s="122">
+        <v>2.6241042266940036</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.4918551154283568</v>
+        <v>3.4899671191408688</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>-4618.9558039108906</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>-0.15095552105845561</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>-4619.9649661779404</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.15098850223912116</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>75716.139042760056</v>
-      </c>
-      <c r="D100" s="109">
+        <v>75673.711618712288</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.1033550115911868</v>
-      </c>
-      <c r="E100" s="109">
+        <v>2.1021763997902156</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.4745353077543375</v>
-      </c>
-      <c r="F100" s="109">
+        <v>2.4731487056355479</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>2.4745353077543375</v>
-      </c>
-      <c r="H100" s="109">
+        <v>2.4731487056355479</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.4745353077543375</v>
-      </c>
-      <c r="I100" s="109">
+        <v>2.4731487056355479</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.3408666131892355</v>
+        <v>3.3390115980824131</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11883,56 +11878,56 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
         <v>0</v>
       </c>
-      <c r="D103" s="109">
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
         <v>0</v>
       </c>
-      <c r="E103" s="122">
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
         <v>0</v>
       </c>
-      <c r="F103" s="109">
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
         <v>0</v>
       </c>
-      <c r="H103" s="122">
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
         <v>0</v>
       </c>
-      <c r="I103" s="109">
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
         <v>0</v>
       </c>
@@ -11944,58 +11939,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>37858.069521380028</v>
-      </c>
-      <c r="D106" s="109">
+        <v>37836.855809356144</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>1.0516775057955934</v>
-      </c>
-      <c r="E106" s="122">
+        <v>1.0510881998951078</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>1.2372676538771687</v>
-      </c>
-      <c r="F106" s="109">
+        <v>1.2365743528177739</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>1.2372676538771687</v>
-      </c>
-      <c r="H106" s="122">
+        <v>1.2365743528177739</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>1.2372676538771687</v>
-      </c>
-      <c r="I106" s="122">
+        <v>1.2365743528177739</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>1.6704333065946178</v>
+        <v>1.6695057990412066</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12004,15 +11999,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA920ECA-235F-4D55-BBF6-69633E1912CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{533198D0-F7C2-4447-A8A0-099F5C694D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -986,6 +986,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1678,7 +1686,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2330,9 +2338,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2341,9 +2346,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2351,6 +2353,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2806,7 +2820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,7 +2842,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2836,7 +2850,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2869,7 +2883,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2885,7 +2899,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2928,6 +2942,9 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
@@ -3904,11 +3921,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3922,10 +3939,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4147,8 +4164,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4161,8 +4181,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4205,60 +4225,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0762.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>7.02</v>
+        <v>7.17</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>中国联通</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>30598124345</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>214798.83290189999</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>219388.55155365</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4281,11 +4301,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4305,7 +4325,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4426,7 +4446,7 @@
         <v>250</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>7.0726027344301209E-2</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4438,20 +4458,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.68239969489618901</v>
+        <v>255</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.26186380101467988</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>0.18430733569877825</v>
       </c>
@@ -4460,26 +4480,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.26186380101467988</v>
+      <c r="B23" s="275" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>1.4654168333884241</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.14533802074178037</v>
+        <v>0.14852664976376248</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>5.3167363129601151E-3</v>
       </c>
@@ -4488,7 +4508,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>24.518182601518514</v>
+        <v>25.056096825273901</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4539,10 +4559,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4550,22 +4570,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.1021763997902156</v>
+        <v>2.0916385055625284</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>3.8398633377947746</v>
+        <v>3.8208697692329507</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.4731487056355479</v>
-      </c>
-      <c r="G29" s="285">
+        <v>2.4607511830147395</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.3390115980824131</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>3.3224954515069141</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5596,7 +5616,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7837,7 +7857,7 @@
       <c r="B47" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>263</v>
       </c>
       <c r="D47" s="36"/>
@@ -9764,7 +9784,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>1379544</v>
       </c>
@@ -10811,7 +10831,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>1487424</v>
       </c>
@@ -10828,7 +10848,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>83483</v>
       </c>
@@ -10937,11 +10957,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>95670</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10952,11 +10972,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10968,11 +10988,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11186,19 +11206,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11208,18 +11228,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11586,17 +11606,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0786057280528851E-2</v>
+        <v>3.9910446027304119E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0786057280528851E-2</v>
+        <v>3.9910446027304119E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>4.0786057280528851E-2</v>
+        <v>3.9910446027304119E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11678,15 +11698,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11707,14 +11727,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.2780108971101116</v>
+        <v>5.2529051415643044</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.2780108971101116</v>
+        <v>5.2529051415643044</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11785,21 +11805,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>80292.667422623184</v>
+        <v>79910.741708612841</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.6241042266940036</v>
+        <v>2.6116222291145421</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.6241042266940036</v>
+        <v>2.6116222291145421</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.4899671191408688</v>
+        <v>3.4733664976067167</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11809,14 +11829,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-4618.9558039108906</v>
+        <v>-4616.3710286219921</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.15095552105845561</v>
+        <v>-0.15087104609980276</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11848,27 +11868,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>75673.711618712288</v>
+        <v>75294.370679990854</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.1021763997902156</v>
+        <v>2.0916385055625284</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.4731487056355479</v>
+        <v>2.4607511830147395</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>2.4731487056355479</v>
+        <v>2.4607511830147395</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.4731487056355479</v>
+        <v>2.4607511830147399</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.3390115980824131</v>
+        <v>3.3224954515069141</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11970,27 +11990,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>37836.855809356144</v>
+        <v>37647.18533999542</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>1.0510881998951078</v>
+        <v>1.0458192527812642</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>1.2365743528177739</v>
+        <v>1.2303755915073697</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>1.2365743528177739</v>
+        <v>1.2303755915073697</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>1.2365743528177739</v>
+        <v>1.23037559150737</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>1.6695057990412066</v>
+        <v>1.661247725753457</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{533198D0-F7C2-4447-A8A0-099F5C694D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7148C9B7-F2A6-42C7-A683-A67A72D2DA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4235,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>7.17</v>
+        <v>7.15</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>274</v>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>219388.55155365</v>
+        <v>218776.58906674999</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4325,7 +4325,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.14852664976376248</v>
+        <v>0.14834829871377408</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>25.056096825273901</v>
+        <v>25.026009422208482</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4570,20 +4570,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.0916385055625284</v>
+        <v>1.4729905239617611</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>3.8208697692329507</v>
+        <v>3.0406567273466441</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.4607511830147395</v>
+        <v>1.7329300281903073</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.3224954515069141</v>
+        <v>2.6440493281275166</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9735,7 +9735,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11606,17 +11606,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9910446027304119E-2</v>
+        <v>3.9958428174832542E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9910446027304119E-2</v>
+        <v>3.9958428174832542E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9910446027304119E-2</v>
+        <v>3.9958428174832542E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11727,14 +11727,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.2529051415643044</v>
+        <v>5.2457603979110292</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.2529051415643044</v>
+        <v>5.2457603979110292</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11805,21 +11805,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>79910.741708612841</v>
+        <v>79802.051041398328</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.6116222291145421</v>
+        <v>2.6080700287904635</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.6116222291145421</v>
+        <v>2.6080700287904635</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.4733664976067167</v>
+        <v>3.4686421950407116</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11829,14 +11829,14 @@
       </c>
       <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
-        <v>-4616.3710286219921</v>
+        <v>-4609.0286513169613</v>
       </c>
       <c r="D98" s="208"/>
       <c r="E98" s="208"/>
       <c r="F98" s="208"/>
       <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.15087104609980276</v>
+        <v>-0.1506310844203794</v>
       </c>
       <c r="I98" s="210"/>
       <c r="K98" s="24"/>
@@ -11846,18 +11846,18 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>0</v>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
+        <v>-20621.966424493021</v>
       </c>
       <c r="D99" s="209"/>
       <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0</v>
+        <v>-0.77505604986673793</v>
       </c>
       <c r="F99" s="209"/>
       <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-0.67396178249281569</v>
       </c>
       <c r="I99" s="211"/>
       <c r="K99" s="24"/>
@@ -11868,27 +11868,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>75294.370679990854</v>
+        <v>54571.055965588355</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>2.0916385055625284</v>
+        <v>1.4729905239617611</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.4607511830147395</v>
+        <v>1.6823828945033461</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>2.4607511830147395</v>
+        <v>1.7329300281903073</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>2.4607511830147399</v>
+        <v>1.7834771618772685</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.3224954515069141</v>
+        <v>2.6440493281275166</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11990,27 +11990,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>37647.18533999542</v>
+        <v>25738.880500957199</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>1.0458192527812642</v>
+        <v>0.73649526198088056</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>1.2303755915073697</v>
+        <v>0.84119144725167305</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>1.2303755915073697</v>
+        <v>0.86646501409515364</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>1.23037559150737</v>
+        <v>0.89173858093863423</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>1.661247725753457</v>
+        <v>1.3220246640637583</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEDA8D7D-FA14-463F-8B7F-C0E50B15E813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{327E0F0D-3EE8-44A0-A1D3-9669470697AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4448,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>7.34</v>
+        <v>7.38</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>224590.23269229999</v>
+        <v>225814.15766610001</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4538,7 +4538,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4669,7 +4669,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.15254354860005992</v>
+        <v>0.15338446161868943</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>25.733738220536523</v>
+        <v>25.875598270904096</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4788,20 +4788,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9980180661889342</v>
+        <v>1.4994208503990922</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>3.384272053187956</v>
+        <v>3.0103659100534896</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.3506094896340404</v>
+        <v>1.7640245298812851</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.9428452636417011</v>
+        <v>2.6177094870030349</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11252,7 +11252,7 @@
       </c>
       <c r="I61" s="209">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-0.67284342578079948</v>
+        <v>-0.67280125683192604</v>
       </c>
       <c r="K61" s="178"/>
     </row>
@@ -11306,7 +11306,7 @@
       </c>
       <c r="I63" s="213">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-0.67284342578079948</v>
+        <v>-0.67280125683192604</v>
       </c>
       <c r="K63" s="178"/>
     </row>
@@ -11327,7 +11327,7 @@
       </c>
       <c r="I64" s="213">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-0.67284342578079948</v>
+        <v>-0.67280125683192604</v>
       </c>
       <c r="K64" s="178"/>
     </row>
@@ -11838,17 +11838,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8859492213298465E-2</v>
+        <v>3.8646449428164656E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8859492213298465E-2</v>
+        <v>3.8646449428164656E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8859492213298465E-2</v>
+        <v>3.8646449428164656E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11952,21 +11952,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.8270048548186235</v>
+        <v>5.2037782721634231</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>4.8270048548186235</v>
+        <v>5.2037782721634231</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12037,21 +12037,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>97113.368792082809</v>
+        <v>79163.390582740903</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.1738340460712582</v>
+        <v>2.5871974925703864</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.1738340460712582</v>
+        <v>2.5871974925703864</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.7660698200789189</v>
+        <v>3.4408824496921362</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12061,14 +12061,14 @@
       </c>
       <c r="C98" s="249">
         <f>-E53*Exchange_Rate</f>
-        <v>-4601.3805349667873</v>
+        <v>-4601.0921537876129</v>
       </c>
       <c r="D98" s="250"/>
       <c r="E98" s="250"/>
       <c r="F98" s="250"/>
       <c r="H98" s="251">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.15038113065641859</v>
+        <v>-0.15037170585717524</v>
       </c>
       <c r="I98" s="252"/>
       <c r="K98" s="75"/>
@@ -12079,17 +12079,17 @@
       </c>
       <c r="C99" s="253">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-20587.746806756681</v>
+        <v>-20586.456516015554</v>
       </c>
       <c r="D99" s="254"/>
       <c r="E99" s="255">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-0.67284342578079948</v>
+        <v>-0.67280125683192604</v>
       </c>
       <c r="F99" s="254"/>
       <c r="H99" s="255">
         <f>I64</f>
-        <v>-0.67284342578079948</v>
+        <v>-0.67280125683192604</v>
       </c>
       <c r="I99" s="256"/>
       <c r="K99" s="75"/>
@@ -12101,23 +12101,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.9980180661889342</v>
+        <v>1.4994208503990922</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.3506094896340404</v>
+        <v>1.7640245298812851</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>2.3506094896340404</v>
+        <v>1.7640245298812851</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>2.3506094896340404</v>
+        <v>1.7640245298812851</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.9428452636417011</v>
+        <v>2.6177094870030349</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12211,23 +12211,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>0.99900903309446709</v>
+        <v>0.74971042519954612</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>1.1753047448170202</v>
+        <v>0.88201226494064255</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>1.1753047448170202</v>
+        <v>0.88201226494064255</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>1.1753047448170202</v>
+        <v>0.88201226494064255</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>1.4714226318208505</v>
+        <v>1.3088547435015174</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{327E0F0D-3EE8-44A0-A1D3-9669470697AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7F0DC33-2721-4BDD-AF40-6BD8DB28E92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2582,6 +2582,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2598,9 +2601,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2814,11 +2814,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3033,7 +3033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3058,6 +3058,7 @@
       <c r="C4" s="66" t="s">
         <v>282</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -4353,7 +4354,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4376,6 +4377,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4394,8 +4398,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4431,18 +4435,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0762.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4458,7 +4465,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>中国联通</v>
       </c>
@@ -4487,11 +4494,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
         <v>225814.15766610001</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4514,11 +4521,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4586,10 +4593,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4636,7 +4643,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4777,10 +4784,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4788,22 +4795,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.4994208503990922</v>
+        <v>1.7084279205633528</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>3.0103659100534896</v>
+        <v>3.5029747000197231</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.7640245298812851</v>
-      </c>
-      <c r="G29" s="312">
+        <v>2.0099152006627681</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.6177094870030349</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>3.0460649565388898</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5785,15 +5792,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5821,7 +5829,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11948,7 +11956,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11959,14 +11967,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.2037782721634231</v>
+        <v>5.6983522401789548</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.2037782721634231</v>
+        <v>5.6983522401789548</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12037,21 +12045,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>79163.390582740903</v>
+        <v>86687.183902588164</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.5871974925703864</v>
+        <v>2.8330881633518694</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.5871974925703864</v>
+        <v>2.8330881633518694</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.4408824496921362</v>
+        <v>3.8692379192279911</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12101,23 +12109,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.4994208503990922</v>
+        <v>1.7084279205633528</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>1.7640245298812851</v>
+        <v>2.0099152006627681</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>1.7640245298812851</v>
+        <v>2.0099152006627681</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>1.7640245298812851</v>
+        <v>2.0099152006627681</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>2.6177094870030349</v>
+        <v>3.0460649565388898</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12211,23 +12219,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>0.74971042519954612</v>
+        <v>0.8542139602816764</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>0.88201226494064255</v>
+        <v>1.004957600331384</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>0.88201226494064255</v>
+        <v>1.004957600331384</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>0.88201226494064255</v>
+        <v>1.004957600331384</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>1.3088547435015174</v>
+        <v>1.5230324782694449</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7F0DC33-2721-4BDD-AF40-6BD8DB28E92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD28BCFC-CA2A-400B-AF5A-6D05842E0188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2582,31 +2582,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4435,27 +4435,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0762.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>7.38</v>
+        <v>7.37</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4465,40 +4465,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>中国联通</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>30598124345</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>225814.15766610001</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>225508.17642264999</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4521,11 +4521,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4676,7 +4676,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.15338446161868943</v>
+        <v>0.15317662359481587</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>25.875598270904096</v>
+        <v>25.840536484629158</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4784,10 +4784,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4795,22 +4795,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.7084279205633528</v>
+        <v>1.9671420974541292</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>3.5029747000197231</v>
+        <v>3.6832126799202616</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.0099152006627681</v>
-      </c>
-      <c r="G29" s="313">
+        <v>2.3142848205342696</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.0460649565388898</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>3.2027936347132711</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5793,15 +5793,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11174,7 +11174,7 @@
         <f>I15+I34</f>
         <v>95670</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11185,11 +11185,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11201,11 +11201,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11846,17 +11846,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8646449428164656E-2</v>
+        <v>3.8698886944349413E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8646449428164656E-2</v>
+        <v>3.8698886944349413E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.8646449428164656E-2</v>
+        <v>3.8698886944349413E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11960,21 +11960,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.6983522401789548</v>
+        <v>5.4874332719688192</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.6983522401789548</v>
+        <v>5.4874332719688192</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12045,21 +12045,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>86687.183902588164</v>
+        <v>96000.323378256755</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>2.8330881633518694</v>
+        <v>3.137457783223371</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>2.8330881633518694</v>
+        <v>3.137457783223371</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>3.8692379192279911</v>
+        <v>4.0259665974023724</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12109,23 +12109,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.7084279205633528</v>
+        <v>1.9671420974541292</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.0099152006627681</v>
+        <v>2.3142848205342696</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>2.0099152006627681</v>
+        <v>2.3142848205342696</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>2.0099152006627681</v>
+        <v>2.3142848205342696</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.0460649565388898</v>
+        <v>3.2027936347132711</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12219,23 +12219,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>0.8542139602816764</v>
+        <v>0.98357104872706458</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>1.004957600331384</v>
+        <v>1.1571424102671348</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>1.004957600331384</v>
+        <v>1.1571424102671348</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>1.004957600331384</v>
+        <v>1.1571424102671348</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>1.5230324782694449</v>
+        <v>1.6013968173566355</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{430757DA-5274-44C4-A44C-59C603736E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC27DA5F-4640-4D56-8E98-221DDE0AE017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2595,6 +2595,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2611,9 +2614,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4461,27 +4461,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0762.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>7.37</v>
+        <v>7.23</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4491,7 +4491,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>中国联通</v>
       </c>
@@ -4520,11 +4520,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>225508.17642264999</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>221224.43901435001</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4547,11 +4547,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4571,7 +4571,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.15318141832452722</v>
+        <v>0.15018623415518773</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>25.841345344265392</v>
+        <v>25.336064812617604</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4810,10 +4810,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4821,22 +4821,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9892909442918121</v>
+        <v>1.9984266608464696</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>3.7303075482272416</v>
+        <v>3.7463509728601454</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.340342287402132</v>
-      </c>
-      <c r="G29" s="313">
+        <v>2.3510901892311407</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2437456941106451</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>3.2576964981392571</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5819,15 +5819,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11388,7 +11388,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-0.67278019748797147</v>
+        <v>-0.67316258290278508</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-0.67278019748797147</v>
+        <v>-0.67316258290278508</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11463,7 +11463,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-0.67278019748797147</v>
+        <v>-0.67316258290278508</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11974,17 +11974,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.869767563095998E-2</v>
+        <v>3.9469428555534418E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.869767563095998E-2</v>
+        <v>3.9469428555534418E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.869767563095998E-2</v>
+        <v>3.9469428555534418E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12095,14 +12095,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.5329628792629091</v>
+        <v>5.5525792974042565</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.5329628792629091</v>
+        <v>5.5525792974042565</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12173,21 +12173,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>96796.84459444086</v>
+        <v>97140.025530182189</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.163489483964343</v>
+        <v>3.1747052347035685</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.163489483964343</v>
+        <v>3.1747052347035685</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.0668928906728565</v>
+        <v>4.0813115436116849</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12197,14 +12197,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-4600.9481350580845</v>
+        <v>-4603.5631577173863</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.15036699907423964</v>
+        <v>-0.15045246256964273</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12215,17 +12215,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-20585.812139590606</v>
+        <v>-20597.512416060788</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-0.67278019748797147</v>
+        <v>-0.67316258290278508</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-0.67278019748797147</v>
+        <v>-0.67316258290278508</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12237,23 +12237,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.9892909442918121</v>
+        <v>1.9984266608464696</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.340342287402132</v>
+        <v>2.3510901892311407</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>2.340342287402132</v>
+        <v>2.3510901892311407</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>2.340342287402132</v>
+        <v>2.3510901892311407</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.2437456941106451</v>
+        <v>3.2576964981392571</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12347,23 +12347,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>0.99464547214590604</v>
+        <v>0.99921333042323479</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>1.170171143701066</v>
+        <v>1.1755450946155703</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>1.170171143701066</v>
+        <v>1.1755450946155703</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>1.170171143701066</v>
+        <v>1.1755450946155703</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>1.6218728470553225</v>
+        <v>1.6288482490696286</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0762.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0762.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC27DA5F-4640-4D56-8E98-221DDE0AE017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99A1C689-2796-42FF-95DB-B4B350BC54FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2595,31 +2595,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4461,27 +4461,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0762.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>7.23</v>
+        <v>7.28</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4491,40 +4491,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>中国联通</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>30598124345</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45624</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>221224.43901435001</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>222754.34523160002</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4547,11 +4547,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4571,7 +4571,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.15018623415518773</v>
+        <v>0.15164686361089186</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>25.336064812617604</v>
+        <v>25.582469569785289</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4810,10 +4810,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4821,22 +4821,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9984266608464696</v>
+        <v>1.9889310147296264</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>3.7463509728601454</v>
+        <v>3.7290824813504679</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.3510901892311407</v>
-      </c>
-      <c r="G29" s="314">
+        <v>2.3399188408583842</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2576964981392571</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>3.2426804185656244</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5819,15 +5819,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11302,7 +11302,7 @@
         <f>I15+I34</f>
         <v>95670</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11313,11 +11313,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11329,11 +11329,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11388,7 +11388,7 @@
       </c>
       <c r="I61" s="203">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>-0.67316258290278508</v>
+        <v>-0.67128933164058546</v>
       </c>
       <c r="K61" s="172"/>
     </row>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="I63" s="207">
         <f>IF(I61&gt;0,FV(I62,D93,0,-I61),I61)</f>
-        <v>-0.67316258290278508</v>
+        <v>-0.67128933164058546</v>
       </c>
       <c r="K63" s="172"/>
     </row>
@@ -11463,7 +11463,7 @@
       </c>
       <c r="I64" s="207">
         <f>IF(I61&gt;0,PV(C94,D93,0,-I63),I61)</f>
-        <v>-0.67316258290278508</v>
+        <v>-0.67128933164058546</v>
       </c>
       <c r="K64" s="172"/>
     </row>
@@ -11974,17 +11974,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9469428555534418E-2</v>
+        <v>3.9089267643694213E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9469428555534418E-2</v>
+        <v>3.9089267643694213E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.9469428555534418E-2</v>
+        <v>3.9089267643694213E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12095,14 +12095,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.5525792974042565</v>
+        <v>5.5290319487256685</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>5.5525792974042565</v>
+        <v>5.5290319487256685</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12173,21 +12173,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>97140.025530182189</v>
+        <v>96728.074627855516</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>3.1747052347035685</v>
+        <v>3.1612419616714749</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>3.1747052347035685</v>
+        <v>3.1612419616714749</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>4.0813115436116849</v>
+        <v>4.0640035393787155</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12197,14 +12197,14 @@
       </c>
       <c r="C98" s="243">
         <f>-E53*Exchange_Rate</f>
-        <v>-4603.5631577173863</v>
+        <v>-4590.752537051836</v>
       </c>
       <c r="D98" s="244"/>
       <c r="E98" s="244"/>
       <c r="F98" s="244"/>
       <c r="H98" s="245">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-0.15045246256964273</v>
+        <v>-0.15003378917250543</v>
       </c>
       <c r="I98" s="246"/>
       <c r="K98" s="75"/>
@@ -12215,17 +12215,17 @@
       </c>
       <c r="C99" s="247">
         <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
-        <v>-20597.512416060788</v>
+        <v>-20540.194441010579</v>
       </c>
       <c r="D99" s="248"/>
       <c r="E99" s="249">
         <f>IF(H99&gt;0,I64,H99)</f>
-        <v>-0.67316258290278508</v>
+        <v>-0.67128933164058546</v>
       </c>
       <c r="F99" s="248"/>
       <c r="H99" s="249">
         <f>I64</f>
-        <v>-0.67316258290278508</v>
+        <v>-0.67128933164058546</v>
       </c>
       <c r="I99" s="250"/>
       <c r="K99" s="75"/>
@@ -12237,23 +12237,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>1.9984266608464696</v>
+        <v>1.9889310147296264</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>2.3510901892311407</v>
+        <v>2.3399188408583842</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>2.3510901892311407</v>
+        <v>2.3399188408583842</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>2.3510901892311407</v>
+        <v>2.3399188408583842</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>3.2576964981392571</v>
+        <v>3.2426804185656244</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12347,23 +12347,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>0.99921333042323479</v>
+        <v>0.99446550736481321</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>1.1755450946155703</v>
+        <v>1.1699594204291921</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>1.1755450946155703</v>
+        <v>1.1699594204291921</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>1.1755450946155703</v>
+        <v>1.1699594204291921</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>1.6288482490696286</v>
+        <v>1.6213402092828122</v>
       </c>
       <c r="K106" s="75"/>
     </row>
